--- a/augment_data.xlsx
+++ b/augment_data.xlsx
@@ -17,12 +17,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="287">
   <si>
     <t>Augment</t>
   </si>
   <si>
     <t>Average Winrate</t>
+  </si>
+  <si>
+    <t>Sample Size</t>
   </si>
   <si>
     <t>Inconsistency</t>
@@ -1232,556 +1235,761 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B68"/>
+  <dimension ref="A1:C68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="C15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="C23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="C24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="C25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="C26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="C28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="C29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="C30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="C31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="C32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="C33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="C34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="C35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="C36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
+      <c r="C38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
+      <c r="C39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
+      <c r="C40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
+      <c r="C41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
+      <c r="C43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
+      <c r="C44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
+      <c r="C46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:2">
+      <c r="C47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
+      <c r="C48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
+      <c r="C49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
+      <c r="C50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:2">
+      <c r="C51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:2">
+      <c r="C53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:2">
+      <c r="C54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:2">
+      <c r="C55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:2">
+      <c r="C56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:2">
+      <c r="C58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:2">
+      <c r="C59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:2">
+      <c r="C60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:2">
+      <c r="C61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:2">
+      <c r="C62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:2">
+      <c r="C63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:2">
+      <c r="C64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:2">
+      <c r="C65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:2">
+      <c r="C66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:2">
+      <c r="C67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
         <v>0</v>
       </c>
     </row>
@@ -1792,1076 +2000,1476 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B133"/>
+  <dimension ref="A1:C133"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="C15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="C23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="C24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="C25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="C26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="C28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="C29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="C30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="C31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="C32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="C33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="C34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="C35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="C36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
+      <c r="C38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
+      <c r="C39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
+      <c r="C40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
+      <c r="C41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
+      <c r="C43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
+      <c r="C44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
+      <c r="C46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:2">
+      <c r="C47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
+      <c r="C48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
+      <c r="C49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
+      <c r="C50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:2">
+      <c r="C51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:2">
+      <c r="C53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:2">
+      <c r="C54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:2">
+      <c r="C55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:2">
+      <c r="C56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:2">
+      <c r="C58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:2">
+      <c r="C59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:2">
+      <c r="C60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:2">
+      <c r="C61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:2">
+      <c r="C62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:2">
+      <c r="C63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:2">
+      <c r="C64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:2">
+      <c r="C65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:2">
+      <c r="C66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:2">
+      <c r="C67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:2">
+      <c r="C68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:2">
+      <c r="C69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:2">
+      <c r="C70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:2">
+      <c r="C71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:2">
+      <c r="C72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:2">
+      <c r="C73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:2">
+      <c r="C74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:2">
+      <c r="C75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:2">
+      <c r="C76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:2">
+      <c r="C77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:2">
+      <c r="C78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:2">
+      <c r="C79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:2">
+      <c r="C80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:2">
+      <c r="C81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:2">
+      <c r="C82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:2">
+      <c r="C83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:2">
+      <c r="C84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:2">
+      <c r="C85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:2">
+      <c r="C86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:2">
+      <c r="C87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:2">
+      <c r="C88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:2">
+      <c r="C89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:2">
+      <c r="C90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:2">
+      <c r="C91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:2">
+      <c r="C92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:2">
+      <c r="C93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:2">
+      <c r="C94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:2">
+      <c r="C95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:2">
+      <c r="C97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:2">
+      <c r="C98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:2">
+      <c r="C99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:2">
+      <c r="C101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:2">
+      <c r="C104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:2">
+      <c r="C105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:2">
+      <c r="C106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:2">
+      <c r="C107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:2">
+      <c r="C108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:2">
+      <c r="C109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:2">
+      <c r="C110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:2">
+      <c r="C111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:2">
+      <c r="C112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:2">
+      <c r="C113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:2">
+      <c r="C114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:2">
+      <c r="C115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:2">
+      <c r="C116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:2">
+      <c r="C117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:2">
+      <c r="C118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:2">
+      <c r="C119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:2">
+      <c r="C120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:2">
+      <c r="C121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B122">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:2">
+      <c r="C122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:2">
+      <c r="C123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B124">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:2">
+      <c r="C124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B125">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:2">
+      <c r="C125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:2">
+      <c r="C126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B127">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:2">
+      <c r="C127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B128">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:2">
+      <c r="C128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B129">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:2">
+      <c r="C129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B130">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:2">
+      <c r="C130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B131">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:2">
+      <c r="C131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B132">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:2">
+      <c r="C132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B133">
+        <v>0</v>
+      </c>
+      <c r="C133">
         <v>0</v>
       </c>
     </row>
@@ -2872,700 +3480,959 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B86"/>
+  <dimension ref="A1:C86"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="C15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="C23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="C24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="C25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="C26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="C28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="C29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="C30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="C31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="C32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="C33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="C34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="C35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="C36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
+      <c r="C38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
+      <c r="C39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
+      <c r="C40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
+      <c r="C41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
+      <c r="C43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
+      <c r="C44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
+      <c r="C46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:2">
+      <c r="C47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
+      <c r="C48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
+      <c r="C49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
+      <c r="C50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:2">
+      <c r="C51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:2">
+      <c r="C53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:2">
+      <c r="C54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:2">
+      <c r="C55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:2">
+      <c r="C56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:2">
+      <c r="C58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:2">
+      <c r="C59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:2">
+      <c r="C60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:2">
+      <c r="C61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:2">
+      <c r="C62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:2">
+      <c r="C63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:2">
+      <c r="C64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:2">
+      <c r="C65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:2">
+      <c r="C66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:2">
+      <c r="C67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:2">
+      <c r="C68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:2">
+      <c r="C69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:2">
+      <c r="C70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:2">
+      <c r="C71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:2">
+      <c r="C72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:2">
+      <c r="C73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:2">
+      <c r="C74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:2">
+      <c r="C75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:2">
+      <c r="C76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:2">
+      <c r="C77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:2">
+      <c r="C78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:2">
+      <c r="C79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:2">
+      <c r="C80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:2">
+      <c r="C81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:2">
+      <c r="C82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:2">
+      <c r="C83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:2">
+      <c r="C84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:2">
+      <c r="C85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B86">
+        <v>0</v>
+      </c>
+      <c r="C86">
         <v>0</v>
       </c>
     </row>
@@ -3576,21 +4443,25 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/augment_data.xlsx
+++ b/augment_data.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="311">
   <si>
     <t>Augment</t>
   </si>
@@ -878,6 +878,78 @@
   </si>
   <si>
     <t>Hedge Fund</t>
+  </si>
+  <si>
+    <t>Tactician's Tools</t>
+  </si>
+  <si>
+    <t>Pandora's Items II</t>
+  </si>
+  <si>
+    <t>Medium-End Shopping</t>
+  </si>
+  <si>
+    <t>It Pays To Learn</t>
+  </si>
+  <si>
+    <t>Three's a Crowd</t>
+  </si>
+  <si>
+    <t>Phreaky Friday+</t>
+  </si>
+  <si>
+    <t>Pandora's Bench</t>
+  </si>
+  <si>
+    <t>Endless Hordes</t>
+  </si>
+  <si>
+    <t>Pandora's Items</t>
+  </si>
+  <si>
+    <t>Job's Done</t>
+  </si>
+  <si>
+    <t>High End Sector</t>
+  </si>
+  <si>
+    <t>Three's Company</t>
+  </si>
+  <si>
+    <t>Shurima's Legacy</t>
+  </si>
+  <si>
+    <t>Sentinel's Spirit</t>
+  </si>
+  <si>
+    <t>Caretaker's Chosen</t>
+  </si>
+  <si>
+    <t>Spectral Supplies</t>
+  </si>
+  <si>
+    <t>Slayer's Resolve</t>
+  </si>
+  <si>
+    <t>Stellacorn's Blessing</t>
+  </si>
+  <si>
+    <t>Pandora's Box</t>
+  </si>
+  <si>
+    <t>What Doesn't Kill You</t>
+  </si>
+  <si>
+    <t>Caretaker's Favor</t>
+  </si>
+  <si>
+    <t>Urf's Grab Bag</t>
+  </si>
+  <si>
+    <t>Think Fast</t>
+  </si>
+  <si>
+    <t>Caretaker's Ally</t>
   </si>
 </sst>
 </file>
@@ -1261,10 +1333,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>4.01</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>726</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1283,10 +1355,10 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>649</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1294,10 +1366,10 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>4.04</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1305,10 +1377,10 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>4.04</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1316,10 +1388,10 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>4.19</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>746</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1327,10 +1399,10 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>4.26</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>2449</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1338,10 +1410,10 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>350</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1349,10 +1421,10 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1360,10 +1432,10 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>4.14</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>463</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1382,10 +1454,10 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>4.31</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1393,10 +1465,10 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1415,10 +1487,10 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>4.83</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1426,10 +1498,10 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>3.67</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1437,10 +1509,10 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>4.21</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>797</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1448,10 +1520,10 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>4.17</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1459,10 +1531,10 @@
         <v>21</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>4.04</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>780</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1470,10 +1542,10 @@
         <v>22</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>4.21</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>975</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1481,10 +1553,10 @@
         <v>23</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1492,10 +1564,10 @@
         <v>24</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>4.58</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>242</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1503,10 +1575,10 @@
         <v>25</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>3.63</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>279</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1514,10 +1586,10 @@
         <v>26</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>4.26</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>265</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1525,10 +1597,10 @@
         <v>27</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>4.39</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>262</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1536,10 +1608,10 @@
         <v>28</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>4.88</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1547,10 +1619,10 @@
         <v>29</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>4.24</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1569,10 +1641,10 @@
         <v>31</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>4.22</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1580,10 +1652,10 @@
         <v>32</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>4.15</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>869</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1591,10 +1663,10 @@
         <v>33</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>4.02</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>233</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1602,10 +1674,10 @@
         <v>34</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>4.11</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>921</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1613,10 +1685,10 @@
         <v>35</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>4.05</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1624,10 +1696,10 @@
         <v>36</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>4.61</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>251</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1635,10 +1707,10 @@
         <v>37</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>4.29</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>467</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1646,10 +1718,10 @@
         <v>38</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>4.79</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>228</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1657,10 +1729,10 @@
         <v>39</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>4.03</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>632</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1668,10 +1740,10 @@
         <v>40</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>4.21</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>477</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1679,10 +1751,10 @@
         <v>41</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>4.54</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>175</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1690,10 +1762,10 @@
         <v>42</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1701,10 +1773,10 @@
         <v>43</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>4.17</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1712,10 +1784,10 @@
         <v>44</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>4.47</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1723,10 +1795,10 @@
         <v>45</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1734,10 +1806,10 @@
         <v>46</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>4.31</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1745,10 +1817,10 @@
         <v>47</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1756,10 +1828,10 @@
         <v>48</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1767,10 +1839,10 @@
         <v>49</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>4.38</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>376</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1778,10 +1850,10 @@
         <v>50</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>4.48</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>391</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1789,10 +1861,10 @@
         <v>51</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>5.77</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1800,10 +1872,10 @@
         <v>52</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>4.58</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>149</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1811,10 +1883,10 @@
         <v>53</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>4.28</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>138</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1822,10 +1894,10 @@
         <v>54</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>4.07</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>454</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1833,10 +1905,10 @@
         <v>55</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>4.56</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1855,10 +1927,10 @@
         <v>57</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>187</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1866,10 +1938,10 @@
         <v>58</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>4.11</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>123</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1877,10 +1949,10 @@
         <v>59</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>3.91</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1888,10 +1960,10 @@
         <v>60</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>4.37</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>636</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1899,10 +1971,10 @@
         <v>61</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>4.48</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>203</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1910,10 +1982,10 @@
         <v>62</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <v>4.27</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>96</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1921,10 +1993,10 @@
         <v>63</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>4.71</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>261</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1932,10 +2004,10 @@
         <v>64</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>4.71</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1943,10 +2015,10 @@
         <v>65</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>4.61</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>64</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1954,10 +2026,10 @@
         <v>66</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1965,10 +2037,10 @@
         <v>67</v>
       </c>
       <c r="B66">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1976,10 +2048,10 @@
         <v>68</v>
       </c>
       <c r="B67">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1987,10 +2059,10 @@
         <v>69</v>
       </c>
       <c r="B68">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>657</v>
       </c>
     </row>
   </sheetData>
@@ -2026,10 +2098,10 @@
         <v>70</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>3.98</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>944</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2048,10 +2120,10 @@
         <v>72</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>3.81</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2070,10 +2142,10 @@
         <v>74</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>4.08</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2081,10 +2153,10 @@
         <v>75</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>4.06</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>595</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2092,10 +2164,10 @@
         <v>76</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>4.35</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>425</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2103,10 +2175,10 @@
         <v>77</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>3.73</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2114,10 +2186,10 @@
         <v>78</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2125,10 +2197,10 @@
         <v>79</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>4.38</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2136,10 +2208,10 @@
         <v>80</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>4.05</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2147,10 +2219,10 @@
         <v>81</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>3.98</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2158,10 +2230,10 @@
         <v>82</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>4.47</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2169,10 +2241,10 @@
         <v>83</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>4.28</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2180,10 +2252,10 @@
         <v>84</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>4.03</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>610</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2191,10 +2263,10 @@
         <v>85</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>4.36</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>3064</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2202,10 +2274,10 @@
         <v>86</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>4.29</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>2989</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2213,10 +2285,10 @@
         <v>87</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>3.57</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>554</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2224,10 +2296,10 @@
         <v>88</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>4.16</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2235,10 +2307,10 @@
         <v>89</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>538</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2257,10 +2329,10 @@
         <v>91</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>4.16</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2268,10 +2340,10 @@
         <v>92</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>4.03</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>946</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2279,10 +2351,10 @@
         <v>93</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>223</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2290,10 +2362,10 @@
         <v>94</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2301,10 +2373,10 @@
         <v>95</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>4.27</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2312,10 +2384,10 @@
         <v>96</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>3.84</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>715</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2323,10 +2395,10 @@
         <v>97</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>4.13</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>2990</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2334,10 +2406,10 @@
         <v>98</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>4.71</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>134</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2345,10 +2417,10 @@
         <v>99</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>274</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2356,10 +2428,10 @@
         <v>100</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>4.22</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>913</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -2367,10 +2439,10 @@
         <v>101</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>4.31</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2378,10 +2450,10 @@
         <v>102</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>4.63</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -2389,10 +2461,10 @@
         <v>103</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>3.98</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>2137</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -2400,10 +2472,10 @@
         <v>104</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>4.06</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -2411,10 +2483,10 @@
         <v>105</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>708</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -2433,10 +2505,10 @@
         <v>107</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>4.13</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -2444,10 +2516,10 @@
         <v>108</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>4.12</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -2455,10 +2527,10 @@
         <v>109</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>3.91</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>126</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -2466,10 +2538,10 @@
         <v>110</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>4.32</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>887</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -2477,10 +2549,10 @@
         <v>111</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>4.22</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>304</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -2488,10 +2560,10 @@
         <v>112</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>3.98</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>333</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -2499,10 +2571,10 @@
         <v>113</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>4.02</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -2510,10 +2582,10 @@
         <v>114</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>4.87</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>157</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -2521,10 +2593,10 @@
         <v>115</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>4.62</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>107</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -2532,10 +2604,10 @@
         <v>116</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>4.28</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>599</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -2543,10 +2615,10 @@
         <v>117</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>4.18</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>302</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -2554,10 +2626,10 @@
         <v>118</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>608</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -2565,10 +2637,10 @@
         <v>119</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>4.24</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>581</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -2576,10 +2648,10 @@
         <v>120</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>4.76</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -2587,10 +2659,10 @@
         <v>121</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>4.58</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -2598,10 +2670,10 @@
         <v>122</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>4.29</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>94</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -2609,10 +2681,10 @@
         <v>123</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>4.62</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>114</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -2620,10 +2692,10 @@
         <v>124</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>4.04</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -2642,10 +2714,10 @@
         <v>126</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>3.84</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>369</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -2653,10 +2725,10 @@
         <v>127</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -2664,10 +2736,10 @@
         <v>128</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>4.81</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>275</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -2675,10 +2747,10 @@
         <v>129</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <v>4.37</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>235</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -2686,10 +2758,10 @@
         <v>130</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>4.21</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>145</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -2697,10 +2769,10 @@
         <v>131</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>205</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -2708,10 +2780,10 @@
         <v>132</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>4.09</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>465</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -2719,10 +2791,10 @@
         <v>133</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>681</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -2730,10 +2802,10 @@
         <v>134</v>
       </c>
       <c r="B66">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>163</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -2741,10 +2813,10 @@
         <v>135</v>
       </c>
       <c r="B67">
-        <v>0</v>
+        <v>4.17</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>655</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -2752,10 +2824,10 @@
         <v>136</v>
       </c>
       <c r="B68">
-        <v>0</v>
+        <v>4.28</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>355</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -2763,10 +2835,10 @@
         <v>137</v>
       </c>
       <c r="B69">
-        <v>0</v>
+        <v>3.96</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>183</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -2774,10 +2846,10 @@
         <v>138</v>
       </c>
       <c r="B70">
-        <v>0</v>
+        <v>3.93</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>46</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -2785,10 +2857,10 @@
         <v>139</v>
       </c>
       <c r="B71">
-        <v>0</v>
+        <v>4.11</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>47</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -2796,10 +2868,10 @@
         <v>140</v>
       </c>
       <c r="B72">
-        <v>0</v>
+        <v>3.86</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>300</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -2818,10 +2890,10 @@
         <v>142</v>
       </c>
       <c r="B74">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>751</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -2829,10 +2901,10 @@
         <v>143</v>
       </c>
       <c r="B75">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -2840,10 +2912,10 @@
         <v>144</v>
       </c>
       <c r="B76">
-        <v>0</v>
+        <v>4.68</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -2851,10 +2923,10 @@
         <v>145</v>
       </c>
       <c r="B77">
-        <v>0</v>
+        <v>4.18</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>115</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -2862,10 +2934,10 @@
         <v>146</v>
       </c>
       <c r="B78">
-        <v>0</v>
+        <v>4.78</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>63</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -2873,10 +2945,10 @@
         <v>147</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>3.43</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>174</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -2884,10 +2956,10 @@
         <v>148</v>
       </c>
       <c r="B80">
-        <v>0</v>
+        <v>4.11</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2895,10 +2967,10 @@
         <v>149</v>
       </c>
       <c r="B81">
-        <v>0</v>
+        <v>4.36</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -2906,10 +2978,10 @@
         <v>150</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>4.23</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>611</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2917,10 +2989,10 @@
         <v>151</v>
       </c>
       <c r="B83">
-        <v>0</v>
+        <v>4.17</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>93</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2928,10 +3000,10 @@
         <v>152</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>4.74</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>74</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2939,10 +3011,10 @@
         <v>153</v>
       </c>
       <c r="B85">
-        <v>0</v>
+        <v>4.53</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>296</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2950,10 +3022,10 @@
         <v>154</v>
       </c>
       <c r="B86">
-        <v>0</v>
+        <v>4.79</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2961,10 +3033,10 @@
         <v>155</v>
       </c>
       <c r="B87">
-        <v>0</v>
+        <v>4.55</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>276</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2972,10 +3044,10 @@
         <v>156</v>
       </c>
       <c r="B88">
-        <v>0</v>
+        <v>4.88</v>
       </c>
       <c r="C88">
-        <v>0</v>
+        <v>95</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2983,10 +3055,10 @@
         <v>157</v>
       </c>
       <c r="B89">
-        <v>0</v>
+        <v>4.48</v>
       </c>
       <c r="C89">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2994,10 +3066,10 @@
         <v>158</v>
       </c>
       <c r="B90">
-        <v>0</v>
+        <v>4.04</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>187</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -3005,10 +3077,10 @@
         <v>159</v>
       </c>
       <c r="B91">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="C91">
-        <v>0</v>
+        <v>435</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -3016,10 +3088,10 @@
         <v>160</v>
       </c>
       <c r="B92">
-        <v>0</v>
+        <v>4.47</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>272</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -3027,10 +3099,10 @@
         <v>161</v>
       </c>
       <c r="B93">
-        <v>0</v>
+        <v>4.22</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>336</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -3038,10 +3110,10 @@
         <v>162</v>
       </c>
       <c r="B94">
-        <v>0</v>
+        <v>3.73</v>
       </c>
       <c r="C94">
-        <v>0</v>
+        <v>92</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -3049,10 +3121,10 @@
         <v>163</v>
       </c>
       <c r="B95">
-        <v>0</v>
+        <v>4.52</v>
       </c>
       <c r="C95">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -3060,10 +3132,10 @@
         <v>164</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>4.37</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>293</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -3071,10 +3143,10 @@
         <v>165</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>4.34</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>140</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -3082,10 +3154,10 @@
         <v>166</v>
       </c>
       <c r="B98">
-        <v>0</v>
+        <v>4.63</v>
       </c>
       <c r="C98">
-        <v>0</v>
+        <v>126</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -3093,10 +3165,10 @@
         <v>167</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>4.17</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -3104,10 +3176,10 @@
         <v>168</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>4.13</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>127</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -3115,10 +3187,10 @@
         <v>169</v>
       </c>
       <c r="B101">
-        <v>0</v>
+        <v>3.81</v>
       </c>
       <c r="C101">
-        <v>0</v>
+        <v>182</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -3126,10 +3198,10 @@
         <v>170</v>
       </c>
       <c r="B102">
-        <v>0</v>
+        <v>3.99</v>
       </c>
       <c r="C102">
-        <v>0</v>
+        <v>639</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -3137,10 +3209,10 @@
         <v>171</v>
       </c>
       <c r="B103">
-        <v>0</v>
+        <v>4.34</v>
       </c>
       <c r="C103">
-        <v>0</v>
+        <v>181</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -3148,10 +3220,10 @@
         <v>172</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>4.89</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -3159,10 +3231,10 @@
         <v>173</v>
       </c>
       <c r="B105">
-        <v>0</v>
+        <v>4.29</v>
       </c>
       <c r="C105">
-        <v>0</v>
+        <v>296</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -3170,10 +3242,10 @@
         <v>174</v>
       </c>
       <c r="B106">
-        <v>0</v>
+        <v>4.58</v>
       </c>
       <c r="C106">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -3181,10 +3253,10 @@
         <v>175</v>
       </c>
       <c r="B107">
-        <v>0</v>
+        <v>4.53</v>
       </c>
       <c r="C107">
-        <v>0</v>
+        <v>221</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -3192,10 +3264,10 @@
         <v>176</v>
       </c>
       <c r="B108">
-        <v>0</v>
+        <v>4.19</v>
       </c>
       <c r="C108">
-        <v>0</v>
+        <v>178</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -3203,10 +3275,10 @@
         <v>177</v>
       </c>
       <c r="B109">
-        <v>0</v>
+        <v>4.44</v>
       </c>
       <c r="C109">
-        <v>0</v>
+        <v>230</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -3214,10 +3286,10 @@
         <v>178</v>
       </c>
       <c r="B110">
-        <v>0</v>
+        <v>4.41</v>
       </c>
       <c r="C110">
-        <v>0</v>
+        <v>197</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -3225,10 +3297,10 @@
         <v>179</v>
       </c>
       <c r="B111">
-        <v>0</v>
+        <v>4.46</v>
       </c>
       <c r="C111">
-        <v>0</v>
+        <v>226</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -3247,10 +3319,10 @@
         <v>181</v>
       </c>
       <c r="B113">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="C113">
-        <v>0</v>
+        <v>250</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -3258,10 +3330,10 @@
         <v>182</v>
       </c>
       <c r="B114">
-        <v>0</v>
+        <v>4.93</v>
       </c>
       <c r="C114">
-        <v>0</v>
+        <v>42</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -3280,10 +3352,10 @@
         <v>184</v>
       </c>
       <c r="B116">
-        <v>0</v>
+        <v>5.13</v>
       </c>
       <c r="C116">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -3291,10 +3363,10 @@
         <v>185</v>
       </c>
       <c r="B117">
-        <v>0</v>
+        <v>4.18</v>
       </c>
       <c r="C117">
-        <v>0</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -3302,10 +3374,10 @@
         <v>186</v>
       </c>
       <c r="B118">
-        <v>0</v>
+        <v>4.73</v>
       </c>
       <c r="C118">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -3313,10 +3385,10 @@
         <v>187</v>
       </c>
       <c r="B119">
-        <v>0</v>
+        <v>4.69</v>
       </c>
       <c r="C119">
-        <v>0</v>
+        <v>164</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -3324,10 +3396,10 @@
         <v>188</v>
       </c>
       <c r="B120">
-        <v>0</v>
+        <v>4.63</v>
       </c>
       <c r="C120">
-        <v>0</v>
+        <v>98</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -3335,10 +3407,10 @@
         <v>189</v>
       </c>
       <c r="B121">
-        <v>0</v>
+        <v>3.98</v>
       </c>
       <c r="C121">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -3346,10 +3418,10 @@
         <v>190</v>
       </c>
       <c r="B122">
-        <v>0</v>
+        <v>4.34</v>
       </c>
       <c r="C122">
-        <v>0</v>
+        <v>475</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -3357,10 +3429,10 @@
         <v>191</v>
       </c>
       <c r="B123">
-        <v>0</v>
+        <v>4.16</v>
       </c>
       <c r="C123">
-        <v>0</v>
+        <v>848</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -3368,10 +3440,10 @@
         <v>192</v>
       </c>
       <c r="B124">
-        <v>0</v>
+        <v>4.66</v>
       </c>
       <c r="C124">
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -3379,10 +3451,10 @@
         <v>193</v>
       </c>
       <c r="B125">
-        <v>0</v>
+        <v>5.09</v>
       </c>
       <c r="C125">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -3390,10 +3462,10 @@
         <v>194</v>
       </c>
       <c r="B126">
-        <v>0</v>
+        <v>4.77</v>
       </c>
       <c r="C126">
-        <v>0</v>
+        <v>211</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -3401,10 +3473,10 @@
         <v>195</v>
       </c>
       <c r="B127">
-        <v>0</v>
+        <v>5.22</v>
       </c>
       <c r="C127">
-        <v>0</v>
+        <v>161</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -3412,10 +3484,10 @@
         <v>196</v>
       </c>
       <c r="B128">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C128">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -3423,10 +3495,10 @@
         <v>197</v>
       </c>
       <c r="B129">
-        <v>0</v>
+        <v>4.64</v>
       </c>
       <c r="C129">
-        <v>0</v>
+        <v>205</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -3434,10 +3506,10 @@
         <v>198</v>
       </c>
       <c r="B130">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="C130">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -3445,10 +3517,10 @@
         <v>199</v>
       </c>
       <c r="B131">
-        <v>0</v>
+        <v>4.22</v>
       </c>
       <c r="C131">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -3467,10 +3539,10 @@
         <v>201</v>
       </c>
       <c r="B133">
-        <v>0</v>
+        <v>4.49</v>
       </c>
       <c r="C133">
-        <v>0</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -3517,10 +3589,10 @@
         <v>203</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>4.03</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3528,10 +3600,10 @@
         <v>204</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>4.22</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3539,10 +3611,10 @@
         <v>205</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>4.18</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>561</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3550,10 +3622,10 @@
         <v>206</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>4.51</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3583,10 +3655,10 @@
         <v>209</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>4.17</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3594,10 +3666,10 @@
         <v>210</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>4.11</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3605,10 +3677,10 @@
         <v>211</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>4.38</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3616,10 +3688,10 @@
         <v>212</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>4.27</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3627,10 +3699,10 @@
         <v>213</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>4.43</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3638,10 +3710,10 @@
         <v>214</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>3.66</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>291</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -3649,10 +3721,10 @@
         <v>215</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>3.79</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -3660,10 +3732,10 @@
         <v>216</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>4.55</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>376</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3671,10 +3743,10 @@
         <v>217</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>4.19</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>395</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -3682,10 +3754,10 @@
         <v>218</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>4.31</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>260</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -3693,10 +3765,10 @@
         <v>219</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>3.64</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -3704,10 +3776,10 @@
         <v>220</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>4.28</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>335</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -3715,10 +3787,10 @@
         <v>221</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>414</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -3726,10 +3798,10 @@
         <v>222</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>5.13</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -3737,10 +3809,10 @@
         <v>223</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>4.31</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -3748,10 +3820,10 @@
         <v>224</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>4.28</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>215</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -3759,10 +3831,10 @@
         <v>225</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>4.53</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>780</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -3781,10 +3853,10 @@
         <v>227</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>4.07</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>973</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -3803,10 +3875,10 @@
         <v>229</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>4.08</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>769</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -3814,10 +3886,10 @@
         <v>230</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>4.28</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>288</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -3825,10 +3897,10 @@
         <v>231</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>3.93</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>260</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -3836,10 +3908,10 @@
         <v>232</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>3.82</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -3847,10 +3919,10 @@
         <v>233</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>4.87</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>173</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -3858,10 +3930,10 @@
         <v>234</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>4.24</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>197</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -3869,10 +3941,10 @@
         <v>235</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>3.86</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -3891,10 +3963,10 @@
         <v>237</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>5.17</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -3902,10 +3974,10 @@
         <v>238</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>4.01</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>390</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -3913,10 +3985,10 @@
         <v>239</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -3935,10 +4007,10 @@
         <v>241</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -3946,10 +4018,10 @@
         <v>242</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>3.57</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>184</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -3957,10 +4029,10 @@
         <v>243</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>4.41</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>153</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -3968,10 +4040,10 @@
         <v>244</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -3979,10 +4051,10 @@
         <v>245</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>4.57</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>182</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -3990,10 +4062,10 @@
         <v>246</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>3.77</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>173</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -4001,10 +4073,10 @@
         <v>247</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>4.31</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>175</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -4012,10 +4084,10 @@
         <v>248</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>4.46</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>183</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -4023,10 +4095,10 @@
         <v>249</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>4.11</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>181</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -4034,10 +4106,10 @@
         <v>250</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>4.44</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>142</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -4045,10 +4117,10 @@
         <v>251</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>4.63</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>103</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -4056,10 +4128,10 @@
         <v>252</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>4.03</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -4067,10 +4139,10 @@
         <v>253</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>4.07</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>595</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -4078,10 +4150,10 @@
         <v>254</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>4.76</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>178</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -4089,10 +4161,10 @@
         <v>255</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -4111,10 +4183,10 @@
         <v>257</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>4.22</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>650</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -4122,10 +4194,10 @@
         <v>258</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>4.36</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>240</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -4133,10 +4205,10 @@
         <v>259</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>3.64</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>170</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -4144,10 +4216,10 @@
         <v>260</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>4.35</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>82</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -4155,10 +4227,10 @@
         <v>261</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>53</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -4166,10 +4238,10 @@
         <v>262</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>4.11</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -4177,10 +4249,10 @@
         <v>263</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>4.56</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>138</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -4188,10 +4260,10 @@
         <v>264</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>4.59</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -4199,10 +4271,10 @@
         <v>265</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>4.54</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>142</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -4210,10 +4282,10 @@
         <v>266</v>
       </c>
       <c r="B66">
-        <v>0</v>
+        <v>4.23</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -4221,10 +4293,10 @@
         <v>267</v>
       </c>
       <c r="B67">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -4232,10 +4304,10 @@
         <v>268</v>
       </c>
       <c r="B68">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>584</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -4243,10 +4315,10 @@
         <v>269</v>
       </c>
       <c r="B69">
-        <v>0</v>
+        <v>3.99</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>362</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -4254,10 +4326,10 @@
         <v>270</v>
       </c>
       <c r="B70">
-        <v>0</v>
+        <v>5.04</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>81</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -4265,10 +4337,10 @@
         <v>271</v>
       </c>
       <c r="B71">
-        <v>0</v>
+        <v>4.83</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>42</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -4276,10 +4348,10 @@
         <v>272</v>
       </c>
       <c r="B72">
-        <v>0</v>
+        <v>4.37</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>68</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -4287,10 +4359,10 @@
         <v>273</v>
       </c>
       <c r="B73">
-        <v>0</v>
+        <v>4.45</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>256</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -4298,10 +4370,10 @@
         <v>274</v>
       </c>
       <c r="B74">
-        <v>0</v>
+        <v>4.74</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>135</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -4309,10 +4381,10 @@
         <v>275</v>
       </c>
       <c r="B75">
-        <v>0</v>
+        <v>4.52</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -4320,10 +4392,10 @@
         <v>276</v>
       </c>
       <c r="B76">
-        <v>0</v>
+        <v>4.47</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>195</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -4331,10 +4403,10 @@
         <v>277</v>
       </c>
       <c r="B77">
-        <v>0</v>
+        <v>3.93</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -4342,10 +4414,10 @@
         <v>278</v>
       </c>
       <c r="B78">
-        <v>0</v>
+        <v>4.37</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>101</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -4353,10 +4425,10 @@
         <v>279</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>3.99</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>762</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -4364,10 +4436,10 @@
         <v>280</v>
       </c>
       <c r="B80">
-        <v>0</v>
+        <v>4.58</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -4375,10 +4447,10 @@
         <v>281</v>
       </c>
       <c r="B81">
-        <v>0</v>
+        <v>4.43</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>72</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -4386,10 +4458,10 @@
         <v>282</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>4.76</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>72</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -4397,10 +4469,10 @@
         <v>283</v>
       </c>
       <c r="B83">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -4408,10 +4480,10 @@
         <v>284</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>4.71</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>107</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -4419,10 +4491,10 @@
         <v>285</v>
       </c>
       <c r="B85">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -4430,10 +4502,10 @@
         <v>286</v>
       </c>
       <c r="B86">
-        <v>0</v>
+        <v>4.56</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -4443,7 +4515,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4464,6 +4536,270 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B2">
+        <v>4.69</v>
+      </c>
+      <c r="C2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>288</v>
+      </c>
+      <c r="B3">
+        <v>4.88</v>
+      </c>
+      <c r="C3">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>289</v>
+      </c>
+      <c r="B4">
+        <v>4.11</v>
+      </c>
+      <c r="C4">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>290</v>
+      </c>
+      <c r="B5">
+        <v>5.06</v>
+      </c>
+      <c r="C5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>291</v>
+      </c>
+      <c r="B6">
+        <v>4.17</v>
+      </c>
+      <c r="C6">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>292</v>
+      </c>
+      <c r="B7">
+        <v>4.15</v>
+      </c>
+      <c r="C7">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>293</v>
+      </c>
+      <c r="B8">
+        <v>4.23</v>
+      </c>
+      <c r="C8">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>294</v>
+      </c>
+      <c r="B9">
+        <v>4.05</v>
+      </c>
+      <c r="C9">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>295</v>
+      </c>
+      <c r="B10">
+        <v>4.26</v>
+      </c>
+      <c r="C10">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>296</v>
+      </c>
+      <c r="B11">
+        <v>4.16</v>
+      </c>
+      <c r="C11">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>297</v>
+      </c>
+      <c r="B12">
+        <v>4.13</v>
+      </c>
+      <c r="C12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>298</v>
+      </c>
+      <c r="B13">
+        <v>4.26</v>
+      </c>
+      <c r="C13">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>299</v>
+      </c>
+      <c r="B14">
+        <v>4.23</v>
+      </c>
+      <c r="C14">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>300</v>
+      </c>
+      <c r="B15">
+        <v>4.24</v>
+      </c>
+      <c r="C15">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>301</v>
+      </c>
+      <c r="B16">
+        <v>4.26</v>
+      </c>
+      <c r="C16">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B17">
+        <v>5.14</v>
+      </c>
+      <c r="C17">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>303</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>304</v>
+      </c>
+      <c r="B19">
+        <v>4.52</v>
+      </c>
+      <c r="C19">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>305</v>
+      </c>
+      <c r="B20">
+        <v>4.5</v>
+      </c>
+      <c r="C20">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>306</v>
+      </c>
+      <c r="B21">
+        <v>4.8</v>
+      </c>
+      <c r="C21">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>307</v>
+      </c>
+      <c r="B22">
+        <v>3.54</v>
+      </c>
+      <c r="C22">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>308</v>
+      </c>
+      <c r="B23">
+        <v>4.64</v>
+      </c>
+      <c r="C23">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>309</v>
+      </c>
+      <c r="B24">
+        <v>3.05</v>
+      </c>
+      <c r="C24">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>310</v>
+      </c>
+      <c r="B25">
+        <v>4.75</v>
+      </c>
+      <c r="C25">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/augment_data.xlsx
+++ b/augment_data.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="289">
   <si>
     <t>Augment</t>
   </si>
@@ -28,928 +28,862 @@
     <t>Sample Size</t>
   </si>
   <si>
+    <t>AFK</t>
+  </si>
+  <si>
+    <t>All Natural I</t>
+  </si>
+  <si>
+    <t>Army Building</t>
+  </si>
+  <si>
+    <t>Bastion Heart</t>
+  </si>
+  <si>
+    <t>Blood Money</t>
+  </si>
+  <si>
+    <t>Branching Out</t>
+  </si>
+  <si>
+    <t>Bronze Ticket</t>
+  </si>
+  <si>
+    <t>Bruiser Heart</t>
+  </si>
+  <si>
+    <t>Buried Treasures I</t>
+  </si>
+  <si>
+    <t>Caretaker's Ally</t>
+  </si>
+  <si>
+    <t>Challenger Heart</t>
+  </si>
+  <si>
+    <t>Component Buffet</t>
+  </si>
+  <si>
+    <t>Consistency</t>
+  </si>
+  <si>
+    <t>Cutting Corners</t>
+  </si>
+  <si>
+    <t>Cybernetic Bulk I</t>
+  </si>
+  <si>
+    <t>Cybernetic Leech I</t>
+  </si>
+  <si>
+    <t>Deadeye Heart</t>
+  </si>
+  <si>
+    <t>Gunner Heart</t>
+  </si>
+  <si>
+    <t>Harmacist I</t>
+  </si>
+  <si>
+    <t>Healing Orbs I</t>
+  </si>
+  <si>
     <t>Inconsistency</t>
   </si>
   <si>
-    <t>Medium End Shopping</t>
-  </si>
-  <si>
-    <t>Blood Money</t>
+    <t>Indomitable Will</t>
+  </si>
+  <si>
+    <t>Invoker Heart</t>
+  </si>
+  <si>
+    <t>Iron Assets</t>
+  </si>
+  <si>
+    <t>Jeweled Lotus I</t>
+  </si>
+  <si>
+    <t>Juggernaut Heart</t>
+  </si>
+  <si>
+    <t>Lategame Specialist</t>
+  </si>
+  <si>
+    <t>Latent Forge</t>
+  </si>
+  <si>
+    <t>Missed Connections</t>
+  </si>
+  <si>
+    <t>On a Roll</t>
+  </si>
+  <si>
+    <t>One Twos Three</t>
+  </si>
+  <si>
+    <t>One, Two, Five!</t>
+  </si>
+  <si>
+    <t>Pandora's Bench</t>
+  </si>
+  <si>
+    <t>Pandora's Items</t>
+  </si>
+  <si>
+    <t>Pumping Up I</t>
+  </si>
+  <si>
+    <t>Recombobulator</t>
+  </si>
+  <si>
+    <t>Red Buff</t>
+  </si>
+  <si>
+    <t>Risky Moves</t>
+  </si>
+  <si>
+    <t>Rogue Heart</t>
+  </si>
+  <si>
+    <t>Shadow Isles Heart</t>
+  </si>
+  <si>
+    <t>Silver Spoon</t>
+  </si>
+  <si>
+    <t>Slayer Heart</t>
+  </si>
+  <si>
+    <t>Social Distancing I</t>
+  </si>
+  <si>
+    <t>Sorcerer Heart</t>
+  </si>
+  <si>
+    <t>Spoils of War I</t>
+  </si>
+  <si>
+    <t>Tiny Titans</t>
+  </si>
+  <si>
+    <t>Transfusion I</t>
+  </si>
+  <si>
+    <t>Unburdened I</t>
   </si>
   <si>
     <t>Unified Resistance I</t>
   </si>
   <si>
-    <t>Missed Connections</t>
-  </si>
-  <si>
-    <t>Cybernetic Bulk I</t>
+    <t>Young and Wild and Free</t>
+  </si>
+  <si>
+    <t>Zaun Heart</t>
+  </si>
+  <si>
+    <t>A Cut Above</t>
+  </si>
+  <si>
+    <t>Adrenaline Rush</t>
+  </si>
+  <si>
+    <t>All Natural II</t>
+  </si>
+  <si>
+    <t>All That Shimmers</t>
+  </si>
+  <si>
+    <t>Ancient Archives I</t>
+  </si>
+  <si>
+    <t>Bastion Crest</t>
+  </si>
+  <si>
+    <t>Bruiser Crest</t>
+  </si>
+  <si>
+    <t>Built Different II</t>
+  </si>
+  <si>
+    <t>Buried Treasures II</t>
+  </si>
+  <si>
+    <t>Capricious Forge</t>
+  </si>
+  <si>
+    <t>Caretaker's Favor</t>
+  </si>
+  <si>
+    <t>Challenger Crest</t>
+  </si>
+  <si>
+    <t>Chemtech Enhancements</t>
+  </si>
+  <si>
+    <t>Combat Caster</t>
+  </si>
+  <si>
+    <t>Contagion</t>
+  </si>
+  <si>
+    <t>Cybernetic Bulk II</t>
+  </si>
+  <si>
+    <t>Cybernetic Leech II</t>
+  </si>
+  <si>
+    <t>Deadeye Crest</t>
+  </si>
+  <si>
+    <t>Dedication</t>
+  </si>
+  <si>
+    <t>Defensive Dash</t>
+  </si>
+  <si>
+    <t>Demacia Crest</t>
+  </si>
+  <si>
+    <t>Double Trouble II</t>
+  </si>
+  <si>
+    <t>Dueling Gunners</t>
+  </si>
+  <si>
+    <t>Early Education</t>
+  </si>
+  <si>
+    <t>Endurance Training</t>
+  </si>
+  <si>
+    <t>Escort Quest</t>
+  </si>
+  <si>
+    <t>Freljord Heart</t>
+  </si>
+  <si>
+    <t>Frequent Flier</t>
+  </si>
+  <si>
+    <t>Gargantuan Resolve</t>
+  </si>
+  <si>
+    <t>Gifts from the Fallen</t>
+  </si>
+  <si>
+    <t>Glacial Breeze</t>
+  </si>
+  <si>
+    <t>Gunner Crest</t>
+  </si>
+  <si>
+    <t>Harmacist II</t>
+  </si>
+  <si>
+    <t>Haunted Shell</t>
+  </si>
+  <si>
+    <t>Healing Orbs II</t>
+  </si>
+  <si>
+    <t>Hustler</t>
+  </si>
+  <si>
+    <t>Idealism</t>
+  </si>
+  <si>
+    <t>Infusion</t>
+  </si>
+  <si>
+    <t>Invoker Crest</t>
+  </si>
+  <si>
+    <t>Ionia Crest</t>
+  </si>
+  <si>
+    <t>Jeweled Lotus II</t>
+  </si>
+  <si>
+    <t>Juggernaut Crest</t>
+  </si>
+  <si>
+    <t>Know Your Enemy</t>
+  </si>
+  <si>
+    <t>Last Stand</t>
+  </si>
+  <si>
+    <t>Library Card</t>
+  </si>
+  <si>
+    <t>Long Distance Pals II</t>
+  </si>
+  <si>
+    <t>Loving Invocation</t>
+  </si>
+  <si>
+    <t>Magic Wand</t>
+  </si>
+  <si>
+    <t>Mana Burn</t>
+  </si>
+  <si>
+    <t>Martyr</t>
+  </si>
+  <si>
+    <t>Metabolic Accelerator</t>
+  </si>
+  <si>
+    <t>Morning Light</t>
+  </si>
+  <si>
+    <t>Not Today</t>
+  </si>
+  <si>
+    <t>Noxus Crest</t>
+  </si>
+  <si>
+    <t>Overcharged Manafont</t>
+  </si>
+  <si>
+    <t>Pandora's Items II</t>
+  </si>
+  <si>
+    <t>Parting Gifts</t>
+  </si>
+  <si>
+    <t>Patient Study</t>
+  </si>
+  <si>
+    <t>Perfected Repetition</t>
+  </si>
+  <si>
+    <t>Petricite Shackles</t>
+  </si>
+  <si>
+    <t>Piltover Heart</t>
+  </si>
+  <si>
+    <t>Portable Forge</t>
+  </si>
+  <si>
+    <t>Pumping Up II</t>
+  </si>
+  <si>
+    <t>Return on Investment</t>
+  </si>
+  <si>
+    <t>Rich Get Richer</t>
+  </si>
+  <si>
+    <t>Rich Get Richer+</t>
+  </si>
+  <si>
+    <t>Rogue Crest</t>
+  </si>
+  <si>
+    <t>Salvage Bin</t>
+  </si>
+  <si>
+    <t>Salvage Bin+</t>
+  </si>
+  <si>
+    <t>Scoped Weapons</t>
+  </si>
+  <si>
+    <t>Scrappy Inventions</t>
+  </si>
+  <si>
+    <t>Sentinel's Spirit</t>
+  </si>
+  <si>
+    <t>Shadow Isles Crest</t>
+  </si>
+  <si>
+    <t>Shimmering Inventors</t>
+  </si>
+  <si>
+    <t>Shoplifting</t>
+  </si>
+  <si>
+    <t>Shurima Crest</t>
+  </si>
+  <si>
+    <t>Shurima's Legacy</t>
+  </si>
+  <si>
+    <t>Silver Ticket</t>
+  </si>
+  <si>
+    <t>Slayer Crest</t>
+  </si>
+  <si>
+    <t>Slayer's Resolve</t>
+  </si>
+  <si>
+    <t>Sleight of Hand</t>
+  </si>
+  <si>
+    <t>Social Distancing II</t>
+  </si>
+  <si>
+    <t>Sorcerer Crest</t>
+  </si>
+  <si>
+    <t>Spoils of War II</t>
+  </si>
+  <si>
+    <t>Stable Evolution</t>
+  </si>
+  <si>
+    <t>Stars are Born</t>
+  </si>
+  <si>
+    <t>Stellacorn's Blessing</t>
+  </si>
+  <si>
+    <t>Strategist Heart</t>
+  </si>
+  <si>
+    <t>Suppressing Fire</t>
+  </si>
+  <si>
+    <t>Tactical Superiority</t>
+  </si>
+  <si>
+    <t>Targon Heart</t>
+  </si>
+  <si>
+    <t>Three's Company</t>
+  </si>
+  <si>
+    <t>Three's a Crowd</t>
+  </si>
+  <si>
+    <t>Titanic Strength</t>
+  </si>
+  <si>
+    <t>Tons of Stats!</t>
+  </si>
+  <si>
+    <t>Total Domination</t>
+  </si>
+  <si>
+    <t>Trade Sector</t>
+  </si>
+  <si>
+    <t>Transfusion II</t>
+  </si>
+  <si>
+    <t>Two Healthy</t>
+  </si>
+  <si>
+    <t>Unburdened II</t>
+  </si>
+  <si>
+    <t>Unified Resistance II</t>
+  </si>
+  <si>
+    <t>Unstable Yordle Delivery</t>
+  </si>
+  <si>
+    <t>Vampiric Blades</t>
+  </si>
+  <si>
+    <t>Void Crest</t>
+  </si>
+  <si>
+    <t>What Doesn't Kill You</t>
+  </si>
+  <si>
+    <t>You Have My Bow</t>
+  </si>
+  <si>
+    <t>You Have My Sword</t>
+  </si>
+  <si>
+    <t>Zaun Crest</t>
+  </si>
+  <si>
+    <t>The Boss</t>
+  </si>
+  <si>
+    <t>Riftwalk</t>
+  </si>
+  <si>
+    <t>Winds of War</t>
+  </si>
+  <si>
+    <t>Demonflare</t>
+  </si>
+  <si>
+    <t>Ravenous Hunter</t>
+  </si>
+  <si>
+    <t>Ancient Archives II</t>
+  </si>
+  <si>
+    <t>Bastion Crown</t>
+  </si>
+  <si>
+    <t>Binary Airdrop</t>
+  </si>
+  <si>
+    <t>Birthday Present</t>
+  </si>
+  <si>
+    <t>Blinding Speed</t>
+  </si>
+  <si>
+    <t>Bruiser Crown</t>
+  </si>
+  <si>
+    <t>Built Different III</t>
+  </si>
+  <si>
+    <t>Buried Treasures III</t>
+  </si>
+  <si>
+    <t>Caretaker's Chosen</t>
+  </si>
+  <si>
+    <t>Challenger Crown</t>
+  </si>
+  <si>
+    <t>Cruel Pact</t>
+  </si>
+  <si>
+    <t>Cursed Crown</t>
+  </si>
+  <si>
+    <t>Cybernetic Bulk III</t>
+  </si>
+  <si>
+    <t>Cybernetic Leech III</t>
+  </si>
+  <si>
+    <t>Deadeye Crown</t>
+  </si>
+  <si>
+    <t>Demacia Crown</t>
+  </si>
+  <si>
+    <t>Double Trouble III</t>
+  </si>
+  <si>
+    <t>Endless Hordes</t>
+  </si>
+  <si>
+    <t>Final Reserves</t>
+  </si>
+  <si>
+    <t>Freljord Soul</t>
+  </si>
+  <si>
+    <t>Golden Ticket</t>
+  </si>
+  <si>
+    <t>Gunner Crown</t>
+  </si>
+  <si>
+    <t>Harmacist III</t>
+  </si>
+  <si>
+    <t>Hedge Fund</t>
+  </si>
+  <si>
+    <t>Hedge Fund+</t>
+  </si>
+  <si>
+    <t>Hedge Fund++</t>
+  </si>
+  <si>
+    <t>High End Sector</t>
+  </si>
+  <si>
+    <t>Impenetrable Bulwark</t>
+  </si>
+  <si>
+    <t>Infernal Contract</t>
+  </si>
+  <si>
+    <t>Invoker Crown</t>
+  </si>
+  <si>
+    <t>Ionia Crown</t>
+  </si>
+  <si>
+    <t>Jeweled Lotus III</t>
+  </si>
+  <si>
+    <t>Juggernaut Crown</t>
+  </si>
+  <si>
+    <t>Level Up!</t>
+  </si>
+  <si>
+    <t>Living Forge</t>
+  </si>
+  <si>
+    <t>Lucky Gloves</t>
+  </si>
+  <si>
+    <t>March of Progress</t>
+  </si>
+  <si>
+    <t>Multicaster Soul</t>
+  </si>
+  <si>
+    <t>Noxus Crown</t>
+  </si>
+  <si>
+    <t>Overwhelming Force</t>
+  </si>
+  <si>
+    <t>Pandora's Box</t>
+  </si>
+  <si>
+    <t>Phreaky Friday</t>
+  </si>
+  <si>
+    <t>Phreaky Friday+</t>
+  </si>
+  <si>
+    <t>Piltover Soul</t>
+  </si>
+  <si>
+    <t>Pumping Up III</t>
+  </si>
+  <si>
+    <t>Radiant Relics</t>
+  </si>
+  <si>
+    <t>Rogue Crown</t>
+  </si>
+  <si>
+    <t>Roll The Dice</t>
+  </si>
+  <si>
+    <t>Shadow Isles Crown</t>
+  </si>
+  <si>
+    <t>Shurima Crown</t>
+  </si>
+  <si>
+    <t>Slayer Crown</t>
+  </si>
+  <si>
+    <t>Social Distancing III</t>
+  </si>
+  <si>
+    <t>Sorcerer Crown</t>
+  </si>
+  <si>
+    <t>Spoils of War III</t>
+  </si>
+  <si>
+    <t>Starter Kit</t>
+  </si>
+  <si>
+    <t>Strategist Soul</t>
+  </si>
+  <si>
+    <t>Tactician's Tools</t>
+  </si>
+  <si>
+    <t>Targon Soul</t>
+  </si>
+  <si>
+    <t>The Golden Egg</t>
+  </si>
+  <si>
+    <t>Tiniest Titan</t>
+  </si>
+  <si>
+    <t>Transfusion III</t>
+  </si>
+  <si>
+    <t>Unleashed Arcana</t>
+  </si>
+  <si>
+    <t>Void Crown</t>
+  </si>
+  <si>
+    <t>Wandering Trainer</t>
+  </si>
+  <si>
+    <t>Wellness Trust</t>
+  </si>
+  <si>
+    <t>What The Forge</t>
+  </si>
+  <si>
+    <t>Woodland Charm</t>
+  </si>
+  <si>
+    <t>Zaun Crown</t>
+  </si>
+  <si>
+    <t>Knowledge Download II</t>
+  </si>
+  <si>
+    <t>It Pays to Learn II</t>
+  </si>
+  <si>
+    <t>Medium-End Shopping</t>
+  </si>
+  <si>
+    <t>It Pays To Learn</t>
+  </si>
+  <si>
+    <t>Medium Forge</t>
   </si>
   <si>
     <t>Small Forge</t>
   </si>
   <si>
-    <t>Silver Spoon</t>
-  </si>
-  <si>
-    <t>Healing Orbs I</t>
-  </si>
-  <si>
-    <t>Risky Moves</t>
-  </si>
-  <si>
-    <t>Caretaker’s Ally</t>
-  </si>
-  <si>
-    <t>AFK</t>
-  </si>
-  <si>
-    <t>Buried Treasures I</t>
-  </si>
-  <si>
-    <t>Pandora’s Items</t>
-  </si>
-  <si>
-    <t>Consistency</t>
-  </si>
-  <si>
-    <t>Pumping Up I</t>
-  </si>
-  <si>
-    <t>Tiny Titans</t>
-  </si>
-  <si>
-    <t>Unburdened I</t>
-  </si>
-  <si>
-    <t>Red Buff</t>
-  </si>
-  <si>
-    <t>Social Distancing I</t>
-  </si>
-  <si>
-    <t>Latent Forge</t>
+    <t>Job Well Done</t>
+  </si>
+  <si>
+    <t>Large Forge</t>
+  </si>
+  <si>
+    <t>Gotta Go Fast! II</t>
+  </si>
+  <si>
+    <t>Masterful Job</t>
+  </si>
+  <si>
+    <t>Money Money!</t>
   </si>
   <si>
     <t>Training Reward</t>
   </si>
   <si>
-    <t>Lategame Specialist</t>
-  </si>
-  <si>
-    <t>Recombobulator</t>
+    <t>Training Reward III</t>
+  </si>
+  <si>
+    <t>Training Reward II</t>
+  </si>
+  <si>
+    <t>It Pays to Learn III</t>
+  </si>
+  <si>
+    <t>Job's Done</t>
+  </si>
+  <si>
+    <t>Final Grab Bag II</t>
+  </si>
+  <si>
+    <t>Seeing Double II</t>
+  </si>
+  <si>
+    <t>Big Grab Bag</t>
   </si>
   <si>
     <t>Tiny Grab Bag</t>
   </si>
   <si>
+    <t>Ascension</t>
+  </si>
+  <si>
+    <t>Final Ascension</t>
+  </si>
+  <si>
+    <t>Final Grab Bag</t>
+  </si>
+  <si>
+    <t>Rolling For Days II</t>
+  </si>
+  <si>
     <t>Battle Ready</t>
   </si>
   <si>
-    <t>Final Grab Bag</t>
-  </si>
-  <si>
-    <t>It Pays to Learn</t>
-  </si>
-  <si>
-    <t>One Twos Three</t>
-  </si>
-  <si>
-    <t>Jeweled Lotus I</t>
-  </si>
-  <si>
-    <t>Invoker Heart</t>
-  </si>
-  <si>
-    <t>Cybernetic Leech I</t>
-  </si>
-  <si>
-    <t>Bastion Heart</t>
-  </si>
-  <si>
-    <t>Bruiser Heart</t>
-  </si>
-  <si>
-    <t>Challenger Heart</t>
-  </si>
-  <si>
-    <t>Gunner Heart</t>
-  </si>
-  <si>
-    <t>Sorcerer Heart</t>
-  </si>
-  <si>
-    <t>Harmacist I</t>
-  </si>
-  <si>
-    <t>Deadeye Heart</t>
+    <t>Urf's Grab Bag</t>
+  </si>
+  <si>
+    <t>Tiny Power II</t>
+  </si>
+  <si>
+    <t>Giant Grab Bag</t>
+  </si>
+  <si>
+    <t>Knowledge Download III</t>
+  </si>
+  <si>
+    <t>Rolling For Days III</t>
+  </si>
+  <si>
+    <t>Well-Earned Comforts III</t>
   </si>
   <si>
     <t>Money!</t>
   </si>
   <si>
+    <t>Gotta Go Fast!!! III</t>
+  </si>
+  <si>
+    <t>Tiny Power I</t>
+  </si>
+  <si>
+    <t>Balanced Budget II</t>
+  </si>
+  <si>
+    <t>Money Money Money!</t>
+  </si>
+  <si>
+    <t>Tiny Power III</t>
+  </si>
+  <si>
+    <t>Multicaster Heart</t>
+  </si>
+  <si>
+    <t>Spectral Supplies</t>
+  </si>
+  <si>
+    <t>Well-Earned Comforts II</t>
+  </si>
+  <si>
+    <t>Knowledge Download I</t>
+  </si>
+  <si>
+    <t>Rolling For Days I</t>
+  </si>
+  <si>
+    <t>Battle Ready II</t>
+  </si>
+  <si>
+    <t>Item Grab Bag II</t>
+  </si>
+  <si>
+    <t>Item Grab Bag I</t>
+  </si>
+  <si>
+    <t>Battle Ready III</t>
+  </si>
+  <si>
+    <t>Well-Earned Comforts I</t>
+  </si>
+  <si>
+    <t>Think Fast</t>
+  </si>
+  <si>
     <t>Partial Ascension</t>
   </si>
   <si>
-    <t>One, Two, Five!</t>
-  </si>
-  <si>
-    <t>Well-Earned Comforts I</t>
-  </si>
-  <si>
-    <t>Tiny Power I</t>
+    <t>Balanced Budget III</t>
+  </si>
+  <si>
+    <t>Seeing Double III</t>
+  </si>
+  <si>
+    <t>Seeing Double I</t>
   </si>
   <si>
     <t>Gotta Go Fast!</t>
   </si>
   <si>
-    <t>Item Grab Bag I</t>
-  </si>
-  <si>
-    <t>Component Buffet</t>
-  </si>
-  <si>
-    <t>Transfusion I</t>
-  </si>
-  <si>
-    <t>Rogue Heart</t>
-  </si>
-  <si>
-    <t>Shadow Isles Heart</t>
-  </si>
-  <si>
-    <t>Juggernaut Heart</t>
-  </si>
-  <si>
-    <t>Zaun Heart</t>
-  </si>
-  <si>
-    <t>On a Roll</t>
-  </si>
-  <si>
-    <t>Pandora’s Bench</t>
-  </si>
-  <si>
-    <t>Iron Assets</t>
-  </si>
-  <si>
-    <t>Spoils of War I</t>
-  </si>
-  <si>
-    <t>Cutting Corners</t>
-  </si>
-  <si>
-    <t>Army Building</t>
-  </si>
-  <si>
-    <t>Bronze Ticket</t>
-  </si>
-  <si>
-    <t>All Natural I</t>
-  </si>
-  <si>
-    <t>Branching Out</t>
-  </si>
-  <si>
-    <t>Balanced Budget</t>
-  </si>
-  <si>
-    <t>Knowledge Download I</t>
-  </si>
-  <si>
-    <t>Rolling For Days I</t>
-  </si>
-  <si>
-    <t>Seeing Double I</t>
-  </si>
-  <si>
-    <t>Slayer Heart</t>
-  </si>
-  <si>
-    <t>Young and Wild and Free</t>
-  </si>
-  <si>
-    <t>A Cut Above</t>
-  </si>
-  <si>
-    <t>Shurima’s Legacy</t>
-  </si>
-  <si>
-    <t>All That Shimmers</t>
-  </si>
-  <si>
-    <t>Sentinel’s Spirit</t>
-  </si>
-  <si>
-    <t>Stable Evolution</t>
-  </si>
-  <si>
-    <t>Overcharged Manafont</t>
-  </si>
-  <si>
-    <t>Ravenous Hunter</t>
-  </si>
-  <si>
-    <t>Petricite Shackles</t>
-  </si>
-  <si>
-    <t>Magic Wand</t>
-  </si>
-  <si>
-    <t>Stars are Born</t>
-  </si>
-  <si>
-    <t>Tons of Stats!</t>
-  </si>
-  <si>
-    <t>Gifts from the Fallen</t>
-  </si>
-  <si>
-    <t>Morning Light</t>
-  </si>
-  <si>
-    <t>Mana Burn</t>
-  </si>
-  <si>
-    <t>Capricious Forge</t>
-  </si>
-  <si>
-    <t>Job Well Done</t>
-  </si>
-  <si>
-    <t>Medium Forge</t>
-  </si>
-  <si>
-    <t>Total Domination</t>
-  </si>
-  <si>
-    <t>Void Crest</t>
-  </si>
-  <si>
-    <t>Glacial Breeze</t>
-  </si>
-  <si>
-    <t>Stellacorn’s Blessing</t>
-  </si>
-  <si>
-    <t>Tactical Superiority</t>
-  </si>
-  <si>
-    <t>Idealism</t>
-  </si>
-  <si>
-    <t>Two Healthy</t>
-  </si>
-  <si>
-    <t>Unified Resistance II</t>
-  </si>
-  <si>
-    <t>You Have My Bow</t>
-  </si>
-  <si>
-    <t>Combat Caster</t>
-  </si>
-  <si>
-    <t>Long Distance Pals II</t>
-  </si>
-  <si>
-    <t>Targon Heart</t>
-  </si>
-  <si>
-    <t>Shadow Isles Crest</t>
-  </si>
-  <si>
-    <t>Portable Forge</t>
-  </si>
-  <si>
-    <t>Contagion</t>
-  </si>
-  <si>
-    <t>Patient Study</t>
-  </si>
-  <si>
-    <t>Know Your Enemy</t>
-  </si>
-  <si>
-    <t>Metabolic Accelerator</t>
-  </si>
-  <si>
-    <t>Martyr</t>
-  </si>
-  <si>
-    <t>Pandora’s Items II</t>
-  </si>
-  <si>
-    <t>Unburdened II</t>
-  </si>
-  <si>
-    <t>Endurance Training</t>
-  </si>
-  <si>
-    <t>Escort Quest</t>
-  </si>
-  <si>
-    <t>Healing Orbs II</t>
-  </si>
-  <si>
-    <t>Ionia Crest</t>
-  </si>
-  <si>
-    <t>Loving Invocation</t>
-  </si>
-  <si>
-    <t>Battle Ready II</t>
-  </si>
-  <si>
-    <t>Ascension</t>
-  </si>
-  <si>
-    <t>Salvage Bin+</t>
-  </si>
-  <si>
-    <t>Library Card</t>
-  </si>
-  <si>
-    <t>Last Stand</t>
-  </si>
-  <si>
-    <t>Final Grab Bag II</t>
-  </si>
-  <si>
-    <t>Big Grab Bag</t>
-  </si>
-  <si>
-    <t>Item Grab Bag II</t>
-  </si>
-  <si>
-    <t>Tiny Power II</t>
-  </si>
-  <si>
-    <t>Shoplifting</t>
-  </si>
-  <si>
-    <t>Rich Get Richer+</t>
-  </si>
-  <si>
-    <t>It Pays to Learn II</t>
-  </si>
-  <si>
-    <t>Three’s a Crowd</t>
-  </si>
-  <si>
-    <t>Noxus Crest</t>
-  </si>
-  <si>
-    <t>You Have My Sword</t>
-  </si>
-  <si>
-    <t>Dueling Gunners</t>
-  </si>
-  <si>
-    <t>Defensive Dash</t>
-  </si>
-  <si>
-    <t>Bastion Crest</t>
-  </si>
-  <si>
-    <t>Bruiser Crest</t>
-  </si>
-  <si>
-    <t>Challenger Crest</t>
-  </si>
-  <si>
-    <t>Freljord Heart</t>
-  </si>
-  <si>
-    <t>Shurima Crest</t>
-  </si>
-  <si>
-    <t>Sorcerer Crest</t>
-  </si>
-  <si>
-    <t>Suppressing Fire</t>
-  </si>
-  <si>
-    <t>Titanic Strength</t>
-  </si>
-  <si>
-    <t>Vampiric Blades</t>
-  </si>
-  <si>
-    <t>Winds of War</t>
-  </si>
-  <si>
-    <t>Riftwalk</t>
-  </si>
-  <si>
-    <t>Three’s Company</t>
-  </si>
-  <si>
-    <t>Cybernetic Bulk II</t>
-  </si>
-  <si>
-    <t>Social Distancing II</t>
-  </si>
-  <si>
-    <t>Demonflare</t>
-  </si>
-  <si>
-    <t>Pumping Up II</t>
-  </si>
-  <si>
-    <t>All Natural II</t>
-  </si>
-  <si>
-    <t>Piltover Heart</t>
-  </si>
-  <si>
-    <t>Scrappy Inventions</t>
-  </si>
-  <si>
-    <t>Shimmering Inventors</t>
-  </si>
-  <si>
-    <t>Transfusion II</t>
-  </si>
-  <si>
-    <t>Unstable Yordle Delivery</t>
-  </si>
-  <si>
-    <t>Built Different II</t>
-  </si>
-  <si>
-    <t>Ancient Archives I</t>
-  </si>
-  <si>
-    <t>Well-Earned Comforts II</t>
-  </si>
-  <si>
-    <t>Training Reward II</t>
-  </si>
-  <si>
-    <t>Money Money!</t>
-  </si>
-  <si>
-    <t>Gotta Go Fast! II</t>
-  </si>
-  <si>
-    <t>Scoped Weapons</t>
-  </si>
-  <si>
-    <t>Infusion</t>
-  </si>
-  <si>
-    <t>Gargantuan Resolve</t>
-  </si>
-  <si>
-    <t>Not Today</t>
-  </si>
-  <si>
-    <t>Parting Gifts</t>
-  </si>
-  <si>
-    <t>Early Education</t>
-  </si>
-  <si>
-    <t>Indomitable Will</t>
-  </si>
-  <si>
-    <t>Buried Treasures II</t>
-  </si>
-  <si>
-    <t>Trade Sector</t>
-  </si>
-  <si>
-    <t>Jeweled Lotus II</t>
-  </si>
-  <si>
-    <t>Adrenaline Rush</t>
-  </si>
-  <si>
-    <t>Chemtech Enhancements</t>
-  </si>
-  <si>
-    <t>Zaun Crest</t>
-  </si>
-  <si>
-    <t>Deadeye Crest</t>
-  </si>
-  <si>
-    <t>Demacia Crest</t>
-  </si>
-  <si>
-    <t>Gunner Crest</t>
-  </si>
-  <si>
-    <t>Haunted Shell</t>
-  </si>
-  <si>
-    <t>Invoker Crest</t>
-  </si>
-  <si>
-    <t>Slayer Crest</t>
-  </si>
-  <si>
-    <t>Double Trouble II</t>
-  </si>
-  <si>
-    <t>Juggernaut Crest</t>
-  </si>
-  <si>
-    <t>The Boss</t>
-  </si>
-  <si>
-    <t>What Doesn’t Kill You</t>
-  </si>
-  <si>
-    <t>Silver Ticket</t>
-  </si>
-  <si>
-    <t>Sleight of Hand</t>
-  </si>
-  <si>
-    <t>Caretaker’s Favor</t>
-  </si>
-  <si>
-    <t>Hustler</t>
-  </si>
-  <si>
-    <t>Cybernetic Leech II</t>
-  </si>
-  <si>
-    <t>Perfected Repetition</t>
-  </si>
-  <si>
-    <t>Strategist Heart</t>
-  </si>
-  <si>
-    <t>Rich Get Richer</t>
-  </si>
-  <si>
-    <t>Spoils of War II</t>
-  </si>
-  <si>
-    <t>Dedication</t>
-  </si>
-  <si>
-    <t>Harmacist II</t>
-  </si>
-  <si>
-    <t>Salvage Bin</t>
-  </si>
-  <si>
-    <t>Balanced Budget II</t>
-  </si>
-  <si>
-    <t>Knowledge Download II</t>
-  </si>
-  <si>
-    <t>Rolling For Days II</t>
-  </si>
-  <si>
-    <t>Seeing Double II</t>
-  </si>
-  <si>
-    <t>Frequent Flier</t>
-  </si>
-  <si>
-    <t>Multicaster Heart</t>
-  </si>
-  <si>
-    <t>Rogue Crest</t>
-  </si>
-  <si>
-    <t>Slayer’s Resolve</t>
-  </si>
-  <si>
-    <t>Return on Investment</t>
-  </si>
-  <si>
-    <t>Endless Horde</t>
-  </si>
-  <si>
-    <t>Shadow Isles Crown</t>
-  </si>
-  <si>
-    <t>Void Crown</t>
-  </si>
-  <si>
-    <t>Cybernetic Bulk III</t>
-  </si>
-  <si>
-    <t>Final Ascension</t>
-  </si>
-  <si>
-    <t>Caretaker’s Chosen</t>
-  </si>
-  <si>
-    <t>Phreaky Friday +</t>
-  </si>
-  <si>
-    <t>Bastion Crown</t>
-  </si>
-  <si>
-    <t>Phreaky Friday</t>
-  </si>
-  <si>
-    <t>Cruel Pact</t>
-  </si>
-  <si>
-    <t>Masterful Job</t>
-  </si>
-  <si>
-    <t>Large Forge</t>
-  </si>
-  <si>
-    <t>Noxus Crown</t>
-  </si>
-  <si>
-    <t>March of Progress</t>
-  </si>
-  <si>
-    <t>Infernal Contract</t>
-  </si>
-  <si>
-    <t>Roll The Dice</t>
-  </si>
-  <si>
-    <t>Tiniest Titan</t>
-  </si>
-  <si>
-    <t>Piltover Soul</t>
-  </si>
-  <si>
-    <t>Challenger Crown</t>
-  </si>
-  <si>
-    <t>Sorcerer Crown</t>
-  </si>
-  <si>
-    <t>Starter Kit</t>
-  </si>
-  <si>
-    <t>Targon Soul</t>
-  </si>
-  <si>
-    <t>Invoker Crown</t>
-  </si>
-  <si>
-    <t>Radiant Relics</t>
-  </si>
-  <si>
-    <t>Tactician’s Tools</t>
-  </si>
-  <si>
-    <t>Level Up!</t>
-  </si>
-  <si>
-    <t>Shopping Spree</t>
-  </si>
-  <si>
-    <t>Golden Ticket</t>
-  </si>
-  <si>
-    <t>Giant Grab Bag</t>
-  </si>
-  <si>
-    <t>Final Reserves</t>
-  </si>
-  <si>
-    <t>Rogue Crown</t>
-  </si>
-  <si>
-    <t>Impenetrable Bulwark</t>
-  </si>
-  <si>
-    <t>Unleashed Arcana</t>
-  </si>
-  <si>
-    <t>Wellness Trust</t>
-  </si>
-  <si>
-    <t>Gifts From Above</t>
-  </si>
-  <si>
-    <t>Gotta Go Fast!!! III</t>
-  </si>
-  <si>
-    <t>It Pays to Learn III</t>
-  </si>
-  <si>
     <t>Item Grab Bag III</t>
-  </si>
-  <si>
-    <t>Urf’s Grab Bag</t>
-  </si>
-  <si>
-    <t>What The Forge</t>
-  </si>
-  <si>
-    <t>The Golden Egg</t>
-  </si>
-  <si>
-    <t>Bruiser Crown</t>
-  </si>
-  <si>
-    <t>Social Distancing III</t>
-  </si>
-  <si>
-    <t>Freljord Soul</t>
-  </si>
-  <si>
-    <t>Juggernaut Crown</t>
-  </si>
-  <si>
-    <t>Deadeye Crown</t>
-  </si>
-  <si>
-    <t>Gunner Crown</t>
-  </si>
-  <si>
-    <t>Ionia Crown</t>
-  </si>
-  <si>
-    <t>Shurima Crown</t>
-  </si>
-  <si>
-    <t>Pumping Up III</t>
-  </si>
-  <si>
-    <t>Battle Ready III</t>
-  </si>
-  <si>
-    <t>Transfusion III</t>
-  </si>
-  <si>
-    <t>Overwhelming Force</t>
-  </si>
-  <si>
-    <t>Seeing Double III</t>
-  </si>
-  <si>
-    <t>Pandora’s Box</t>
-  </si>
-  <si>
-    <t>Ancient Archives II</t>
-  </si>
-  <si>
-    <t>Hedge Fund++</t>
-  </si>
-  <si>
-    <t>Hedge Fund+</t>
-  </si>
-  <si>
-    <t>Well-Earned Comforts III</t>
-  </si>
-  <si>
-    <t>Money Money Money!</t>
-  </si>
-  <si>
-    <t>Tiny Power III</t>
-  </si>
-  <si>
-    <t>Blinding Speed</t>
-  </si>
-  <si>
-    <t>Binary Airdrop</t>
-  </si>
-  <si>
-    <t>Buried Treasures III</t>
-  </si>
-  <si>
-    <t>Birthday Present</t>
-  </si>
-  <si>
-    <t>Jeweled Lotus III</t>
-  </si>
-  <si>
-    <t>Harmacist III</t>
-  </si>
-  <si>
-    <t>Zaun Crown</t>
-  </si>
-  <si>
-    <t>Strategist Soul</t>
-  </si>
-  <si>
-    <t>Demacia Crown</t>
-  </si>
-  <si>
-    <t>Slayer Crown</t>
-  </si>
-  <si>
-    <t>Double Trouble III</t>
-  </si>
-  <si>
-    <t>Lucky Gloves</t>
-  </si>
-  <si>
-    <t>Spoils of War III</t>
-  </si>
-  <si>
-    <t>Wandering Trainer</t>
-  </si>
-  <si>
-    <t>Living Forge</t>
-  </si>
-  <si>
-    <t>Cursed Crown</t>
-  </si>
-  <si>
-    <t>Cybernetic Leech III</t>
-  </si>
-  <si>
-    <t>Multicaster Soul</t>
-  </si>
-  <si>
-    <t>Training Reward III</t>
-  </si>
-  <si>
-    <t>Rolling For Days III</t>
-  </si>
-  <si>
-    <t>Built Different III</t>
-  </si>
-  <si>
-    <t>Knowledge Download III</t>
-  </si>
-  <si>
-    <t>Balanced Budget III</t>
-  </si>
-  <si>
-    <t>Hedge Fund</t>
-  </si>
-  <si>
-    <t>Tactician's Tools</t>
-  </si>
-  <si>
-    <t>Pandora's Items II</t>
-  </si>
-  <si>
-    <t>Medium-End Shopping</t>
-  </si>
-  <si>
-    <t>It Pays To Learn</t>
-  </si>
-  <si>
-    <t>Three's a Crowd</t>
-  </si>
-  <si>
-    <t>Phreaky Friday+</t>
-  </si>
-  <si>
-    <t>Pandora's Bench</t>
-  </si>
-  <si>
-    <t>Endless Hordes</t>
-  </si>
-  <si>
-    <t>Pandora's Items</t>
-  </si>
-  <si>
-    <t>Job's Done</t>
-  </si>
-  <si>
-    <t>High End Sector</t>
-  </si>
-  <si>
-    <t>Three's Company</t>
-  </si>
-  <si>
-    <t>Shurima's Legacy</t>
-  </si>
-  <si>
-    <t>Sentinel's Spirit</t>
-  </si>
-  <si>
-    <t>Caretaker's Chosen</t>
-  </si>
-  <si>
-    <t>Spectral Supplies</t>
-  </si>
-  <si>
-    <t>Slayer's Resolve</t>
-  </si>
-  <si>
-    <t>Stellacorn's Blessing</t>
-  </si>
-  <si>
-    <t>Pandora's Box</t>
-  </si>
-  <si>
-    <t>What Doesn't Kill You</t>
-  </si>
-  <si>
-    <t>Caretaker's Favor</t>
-  </si>
-  <si>
-    <t>Urf's Grab Bag</t>
-  </si>
-  <si>
-    <t>Think Fast</t>
-  </si>
-  <si>
-    <t>Caretaker's Ally</t>
   </si>
 </sst>
 </file>
@@ -1307,7 +1241,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C68"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1333,10 +1267,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>4.01</v>
+        <v>3.93</v>
       </c>
       <c r="C2">
-        <v>726</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1344,10 +1278,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1355,10 +1289,10 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>4.1</v>
+        <v>4.25</v>
       </c>
       <c r="C4">
-        <v>649</v>
+        <v>310</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1366,10 +1300,10 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>4.04</v>
+        <v>4.18</v>
       </c>
       <c r="C5">
-        <v>1615</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1377,10 +1311,10 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>4.04</v>
+        <v>4.08</v>
       </c>
       <c r="C6">
-        <v>179</v>
+        <v>320</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1388,10 +1322,10 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>4.19</v>
+        <v>4.73</v>
       </c>
       <c r="C7">
-        <v>746</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1399,10 +1333,10 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>4.26</v>
+        <v>4.23</v>
       </c>
       <c r="C8">
-        <v>2449</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1410,10 +1344,10 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>4.3</v>
+        <v>4.38</v>
       </c>
       <c r="C9">
-        <v>350</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1421,10 +1355,10 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>4.04</v>
       </c>
       <c r="C10">
-        <v>1005</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1432,10 +1366,10 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>4.14</v>
+        <v>5.44</v>
       </c>
       <c r="C11">
-        <v>463</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1443,10 +1377,10 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>4.27</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>238</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1454,10 +1388,10 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>4.31</v>
+        <v>4.37</v>
       </c>
       <c r="C13">
-        <v>133</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1465,10 +1399,10 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>5.08</v>
       </c>
       <c r="C14">
-        <v>164</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1476,10 +1410,10 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1487,10 +1421,10 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>4.83</v>
+        <v>4.25</v>
       </c>
       <c r="C16">
-        <v>166</v>
+        <v>407</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1498,10 +1432,10 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>3.67</v>
+        <v>4.04</v>
       </c>
       <c r="C17">
-        <v>36</v>
+        <v>517</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1509,10 +1443,10 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>4.21</v>
+        <v>4.61</v>
       </c>
       <c r="C18">
-        <v>797</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1520,10 +1454,10 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>4.17</v>
+        <v>4.87</v>
       </c>
       <c r="C19">
-        <v>52</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1531,10 +1465,10 @@
         <v>21</v>
       </c>
       <c r="B20">
-        <v>4.04</v>
+        <v>4.1</v>
       </c>
       <c r="C20">
-        <v>780</v>
+        <v>246</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1542,10 +1476,10 @@
         <v>22</v>
       </c>
       <c r="B21">
-        <v>4.21</v>
+        <v>4.02</v>
       </c>
       <c r="C21">
-        <v>975</v>
+        <v>592</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1553,10 +1487,10 @@
         <v>23</v>
       </c>
       <c r="B22">
-        <v>3.75</v>
+        <v>3.94</v>
       </c>
       <c r="C22">
-        <v>106</v>
+        <v>382</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1564,10 +1498,10 @@
         <v>24</v>
       </c>
       <c r="B23">
-        <v>4.58</v>
+        <v>4.48</v>
       </c>
       <c r="C23">
-        <v>242</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1575,10 +1509,10 @@
         <v>25</v>
       </c>
       <c r="B24">
-        <v>3.63</v>
+        <v>3.92</v>
       </c>
       <c r="C24">
-        <v>279</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1586,10 +1520,10 @@
         <v>26</v>
       </c>
       <c r="B25">
-        <v>4.26</v>
+        <v>4.39</v>
       </c>
       <c r="C25">
-        <v>265</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1597,10 +1531,10 @@
         <v>27</v>
       </c>
       <c r="B26">
-        <v>4.39</v>
+        <v>4.24</v>
       </c>
       <c r="C26">
-        <v>262</v>
+        <v>450</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1608,10 +1542,10 @@
         <v>28</v>
       </c>
       <c r="B27">
-        <v>4.88</v>
+        <v>4.66</v>
       </c>
       <c r="C27">
-        <v>24</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1619,10 +1553,10 @@
         <v>29</v>
       </c>
       <c r="B28">
-        <v>4.24</v>
+        <v>3.74</v>
       </c>
       <c r="C28">
-        <v>49</v>
+        <v>134</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1630,10 +1564,10 @@
         <v>30</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>3.38</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1641,10 +1575,10 @@
         <v>31</v>
       </c>
       <c r="B30">
-        <v>4.22</v>
+        <v>4.13</v>
       </c>
       <c r="C30">
-        <v>63</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1652,10 +1586,10 @@
         <v>32</v>
       </c>
       <c r="B31">
-        <v>4.15</v>
+        <v>4.33</v>
       </c>
       <c r="C31">
-        <v>869</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1663,10 +1597,10 @@
         <v>33</v>
       </c>
       <c r="B32">
-        <v>4.02</v>
+        <v>4.12</v>
       </c>
       <c r="C32">
-        <v>233</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1674,10 +1608,10 @@
         <v>34</v>
       </c>
       <c r="B33">
-        <v>4.11</v>
+        <v>4.67</v>
       </c>
       <c r="C33">
-        <v>921</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1685,10 +1619,10 @@
         <v>35</v>
       </c>
       <c r="B34">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="C34">
-        <v>106</v>
+        <v>243</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1696,10 +1630,10 @@
         <v>36</v>
       </c>
       <c r="B35">
-        <v>4.61</v>
+        <v>4.29</v>
       </c>
       <c r="C35">
-        <v>251</v>
+        <v>180</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1707,10 +1641,10 @@
         <v>37</v>
       </c>
       <c r="B36">
-        <v>4.29</v>
+        <v>3.5</v>
       </c>
       <c r="C36">
-        <v>467</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1718,10 +1652,10 @@
         <v>38</v>
       </c>
       <c r="B37">
-        <v>4.79</v>
+        <v>4.01</v>
       </c>
       <c r="C37">
-        <v>228</v>
+        <v>128</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1729,10 +1663,10 @@
         <v>39</v>
       </c>
       <c r="B38">
-        <v>4.03</v>
+        <v>4.11</v>
       </c>
       <c r="C38">
-        <v>632</v>
+        <v>379</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1740,10 +1674,10 @@
         <v>40</v>
       </c>
       <c r="B39">
-        <v>4.21</v>
+        <v>4.25</v>
       </c>
       <c r="C39">
-        <v>477</v>
+        <v>220</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1751,10 +1685,10 @@
         <v>41</v>
       </c>
       <c r="B40">
-        <v>4.54</v>
+        <v>5.71</v>
       </c>
       <c r="C40">
-        <v>175</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1762,10 +1696,10 @@
         <v>42</v>
       </c>
       <c r="B41">
-        <v>3.5</v>
+        <v>4.52</v>
       </c>
       <c r="C41">
-        <v>6</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1773,10 +1707,10 @@
         <v>43</v>
       </c>
       <c r="B42">
-        <v>4.17</v>
+        <v>4.27</v>
       </c>
       <c r="C42">
-        <v>12</v>
+        <v>181</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1784,10 +1718,10 @@
         <v>44</v>
       </c>
       <c r="B43">
-        <v>4.47</v>
+        <v>4.5</v>
       </c>
       <c r="C43">
-        <v>83</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1795,10 +1729,10 @@
         <v>45</v>
       </c>
       <c r="B44">
-        <v>3</v>
+        <v>4.17</v>
       </c>
       <c r="C44">
-        <v>2</v>
+        <v>516</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1806,10 +1740,10 @@
         <v>46</v>
       </c>
       <c r="B45">
-        <v>4.31</v>
+        <v>3.93</v>
       </c>
       <c r="C45">
-        <v>32</v>
+        <v>303</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1817,10 +1751,10 @@
         <v>47</v>
       </c>
       <c r="B46">
-        <v>4.33</v>
+        <v>4.12</v>
       </c>
       <c r="C46">
-        <v>3</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1828,10 +1762,10 @@
         <v>48</v>
       </c>
       <c r="B47">
-        <v>3.8</v>
+        <v>3.93</v>
       </c>
       <c r="C47">
-        <v>10</v>
+        <v>401</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1839,10 +1773,10 @@
         <v>49</v>
       </c>
       <c r="B48">
-        <v>4.38</v>
+        <v>4.32</v>
       </c>
       <c r="C48">
-        <v>376</v>
+        <v>225</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1850,10 +1784,10 @@
         <v>50</v>
       </c>
       <c r="B49">
-        <v>4.48</v>
+        <v>4.32</v>
       </c>
       <c r="C49">
-        <v>391</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1861,10 +1795,10 @@
         <v>51</v>
       </c>
       <c r="B50">
-        <v>5.77</v>
+        <v>3.94</v>
       </c>
       <c r="C50">
-        <v>22</v>
+        <v>777</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1872,10 +1806,10 @@
         <v>52</v>
       </c>
       <c r="B51">
-        <v>4.58</v>
+        <v>3.95</v>
       </c>
       <c r="C51">
-        <v>149</v>
+        <v>348</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1883,186 +1817,10 @@
         <v>53</v>
       </c>
       <c r="B52">
-        <v>4.28</v>
+        <v>3.98</v>
       </c>
       <c r="C52">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" t="s">
-        <v>54</v>
-      </c>
-      <c r="B53">
-        <v>4.07</v>
-      </c>
-      <c r="C53">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" t="s">
-        <v>55</v>
-      </c>
-      <c r="B54">
-        <v>4.56</v>
-      </c>
-      <c r="C54">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" t="s">
-        <v>56</v>
-      </c>
-      <c r="B55">
-        <v>0</v>
-      </c>
-      <c r="C55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" t="s">
-        <v>57</v>
-      </c>
-      <c r="B56">
-        <v>4.5</v>
-      </c>
-      <c r="C56">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" t="s">
-        <v>58</v>
-      </c>
-      <c r="B57">
-        <v>4.11</v>
-      </c>
-      <c r="C57">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" t="s">
-        <v>59</v>
-      </c>
-      <c r="B58">
-        <v>3.91</v>
-      </c>
-      <c r="C58">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" t="s">
-        <v>60</v>
-      </c>
-      <c r="B59">
-        <v>4.37</v>
-      </c>
-      <c r="C59">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" t="s">
-        <v>61</v>
-      </c>
-      <c r="B60">
-        <v>4.48</v>
-      </c>
-      <c r="C60">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" t="s">
-        <v>62</v>
-      </c>
-      <c r="B61">
-        <v>4.27</v>
-      </c>
-      <c r="C61">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" t="s">
-        <v>63</v>
-      </c>
-      <c r="B62">
-        <v>4.71</v>
-      </c>
-      <c r="C62">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" t="s">
-        <v>64</v>
-      </c>
-      <c r="B63">
-        <v>4.71</v>
-      </c>
-      <c r="C63">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" t="s">
-        <v>65</v>
-      </c>
-      <c r="B64">
-        <v>4.61</v>
-      </c>
-      <c r="C64">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" t="s">
-        <v>66</v>
-      </c>
-      <c r="B65">
-        <v>4.33</v>
-      </c>
-      <c r="C65">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" t="s">
-        <v>67</v>
-      </c>
-      <c r="B66">
-        <v>3.5</v>
-      </c>
-      <c r="C66">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" t="s">
-        <v>68</v>
-      </c>
-      <c r="B67">
-        <v>4.1</v>
-      </c>
-      <c r="C67">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" t="s">
-        <v>69</v>
-      </c>
-      <c r="B68">
-        <v>3.85</v>
-      </c>
-      <c r="C68">
-        <v>657</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -2072,7 +1830,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C133"/>
+  <dimension ref="A1:C114"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2095,1454 +1853,1245 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="B2">
-        <v>3.98</v>
+        <v>4.06</v>
       </c>
       <c r="C2">
-        <v>944</v>
+        <v>465</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>4.23</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="B4">
-        <v>3.81</v>
+        <v>5.36</v>
       </c>
       <c r="C4">
-        <v>1293</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>3.72</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>644</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="B6">
-        <v>4.08</v>
+        <v>4.45</v>
       </c>
       <c r="C6">
-        <v>169</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="B7">
-        <v>4.06</v>
+        <v>4.19</v>
       </c>
       <c r="C7">
-        <v>595</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="B8">
-        <v>4.35</v>
+        <v>4.16</v>
       </c>
       <c r="C8">
-        <v>425</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="B9">
-        <v>3.73</v>
+        <v>4.63</v>
       </c>
       <c r="C9">
-        <v>144</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>4.21</v>
       </c>
       <c r="C10">
-        <v>1006</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="B11">
-        <v>4.38</v>
+        <v>3.85</v>
       </c>
       <c r="C11">
-        <v>223</v>
+        <v>292</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="B12">
-        <v>4.05</v>
+        <v>3.63</v>
       </c>
       <c r="C12">
-        <v>2131</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="B13">
-        <v>3.98</v>
+        <v>4.11</v>
       </c>
       <c r="C13">
-        <v>2287</v>
+        <v>238</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="B14">
-        <v>4.47</v>
+        <v>3.48</v>
       </c>
       <c r="C14">
-        <v>189</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B15">
-        <v>4.28</v>
+        <v>3.89</v>
       </c>
       <c r="C15">
-        <v>184</v>
+        <v>383</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="B16">
-        <v>4.03</v>
+        <v>4.25</v>
       </c>
       <c r="C16">
-        <v>610</v>
+        <v>678</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="B17">
-        <v>4.36</v>
+        <v>4.07</v>
       </c>
       <c r="C17">
-        <v>3064</v>
+        <v>388</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="B18">
-        <v>4.29</v>
+        <v>4.14</v>
       </c>
       <c r="C18">
-        <v>2989</v>
+        <v>664</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="B19">
-        <v>3.57</v>
+        <v>4.48</v>
       </c>
       <c r="C19">
-        <v>554</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="B20">
-        <v>4.16</v>
+        <v>4.34</v>
       </c>
       <c r="C20">
-        <v>168</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="B21">
-        <v>4.2</v>
+        <v>4.48</v>
       </c>
       <c r="C21">
-        <v>538</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>5.05</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="B23">
-        <v>4.16</v>
+        <v>3.99</v>
       </c>
       <c r="C23">
-        <v>206</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="B24">
-        <v>4.03</v>
+        <v>4.72</v>
       </c>
       <c r="C24">
-        <v>946</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="B25">
-        <v>4.1</v>
+        <v>4.06</v>
       </c>
       <c r="C25">
-        <v>223</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="B26">
-        <v>4</v>
+        <v>3.71</v>
       </c>
       <c r="C26">
-        <v>1898</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="B27">
-        <v>4.27</v>
+        <v>3.93</v>
       </c>
       <c r="C27">
-        <v>1023</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="B28">
-        <v>3.84</v>
+        <v>4.29</v>
       </c>
       <c r="C28">
-        <v>715</v>
+        <v>339</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="B29">
-        <v>4.13</v>
+        <v>4.62</v>
       </c>
       <c r="C29">
-        <v>2990</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="B30">
-        <v>4.71</v>
+        <v>4.44</v>
       </c>
       <c r="C30">
-        <v>134</v>
+        <v>151</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="B31">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="C31">
-        <v>274</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="B32">
-        <v>4.22</v>
+        <v>4.23</v>
       </c>
       <c r="C32">
-        <v>913</v>
+        <v>254</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="B33">
-        <v>4.31</v>
+        <v>4.27</v>
       </c>
       <c r="C33">
-        <v>1360</v>
+        <v>154</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="B34">
-        <v>4.63</v>
+        <v>4.17</v>
       </c>
       <c r="C34">
-        <v>59</v>
+        <v>472</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="B35">
-        <v>3.98</v>
+        <v>4.67</v>
       </c>
       <c r="C35">
-        <v>2137</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="B36">
-        <v>4.06</v>
+        <v>4.19</v>
       </c>
       <c r="C36">
-        <v>86</v>
+        <v>448</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="B37">
-        <v>4</v>
+        <v>5.36</v>
       </c>
       <c r="C37">
-        <v>708</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>4.01</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>465</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="B39">
-        <v>4.13</v>
+        <v>4.17</v>
       </c>
       <c r="C39">
-        <v>39</v>
+        <v>213</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="B40">
-        <v>4.12</v>
+        <v>4.65</v>
       </c>
       <c r="C40">
-        <v>77</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="B41">
-        <v>3.91</v>
+        <v>4.21</v>
       </c>
       <c r="C41">
-        <v>126</v>
+        <v>142</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="B42">
-        <v>4.32</v>
+        <v>4.17</v>
       </c>
       <c r="C42">
-        <v>887</v>
+        <v>583</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="B43">
-        <v>4.22</v>
+        <v>4.87</v>
       </c>
       <c r="C43">
-        <v>304</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="B44">
         <v>3.98</v>
       </c>
       <c r="C44">
-        <v>333</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="B45">
-        <v>4.02</v>
+        <v>3.69</v>
       </c>
       <c r="C45">
-        <v>56</v>
+        <v>143</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="B46">
-        <v>4.87</v>
+        <v>4.22</v>
       </c>
       <c r="C46">
-        <v>157</v>
+        <v>325</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="B47">
-        <v>4.62</v>
+        <v>4.15</v>
       </c>
       <c r="C47">
-        <v>107</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="B48">
-        <v>4.28</v>
+        <v>3.96</v>
       </c>
       <c r="C48">
-        <v>599</v>
+        <v>188</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="B49">
-        <v>4.18</v>
+        <v>4.02</v>
       </c>
       <c r="C49">
-        <v>302</v>
+        <v>514</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="B50">
-        <v>4.33</v>
+        <v>4.87</v>
       </c>
       <c r="C50">
-        <v>608</v>
+        <v>52</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="B51">
-        <v>4.24</v>
+        <v>4</v>
       </c>
       <c r="C51">
-        <v>581</v>
+        <v>408</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="B52">
-        <v>4.76</v>
+        <v>4.2</v>
       </c>
       <c r="C52">
-        <v>17</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="B53">
-        <v>4.58</v>
+        <v>4.24</v>
       </c>
       <c r="C53">
-        <v>40</v>
+        <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="B54">
-        <v>4.29</v>
+        <v>4.26</v>
       </c>
       <c r="C54">
-        <v>94</v>
+        <v>176</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="B55">
-        <v>4.62</v>
+        <v>3.8</v>
       </c>
       <c r="C55">
-        <v>114</v>
+        <v>184</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="B56">
-        <v>4.04</v>
+        <v>3.98</v>
       </c>
       <c r="C56">
-        <v>1030</v>
+        <v>286</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>4.88</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="B58">
-        <v>3.84</v>
+        <v>3.76</v>
       </c>
       <c r="C58">
-        <v>369</v>
+        <v>42</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="B59">
-        <v>4.1</v>
+        <v>5.24</v>
       </c>
       <c r="C59">
-        <v>1259</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="B60">
-        <v>4.81</v>
+        <v>4.36</v>
       </c>
       <c r="C60">
-        <v>275</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="B61">
-        <v>4.37</v>
+        <v>4.12</v>
       </c>
       <c r="C61">
-        <v>235</v>
+        <v>85</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="B62">
-        <v>4.21</v>
+        <v>3.17</v>
       </c>
       <c r="C62">
-        <v>145</v>
+        <v>84</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="B63">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="C63">
-        <v>205</v>
+        <v>456</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="B64">
-        <v>4.09</v>
+        <v>3.9</v>
       </c>
       <c r="C64">
-        <v>465</v>
+        <v>48</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="B65">
-        <v>4.33</v>
+        <v>4.22</v>
       </c>
       <c r="C65">
-        <v>681</v>
+        <v>116</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="B66">
-        <v>4.33</v>
+        <v>4.39</v>
       </c>
       <c r="C66">
-        <v>163</v>
+        <v>56</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="B67">
-        <v>4.17</v>
+        <v>4.2</v>
       </c>
       <c r="C67">
-        <v>655</v>
+        <v>56</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="B68">
-        <v>4.28</v>
+        <v>5.86</v>
       </c>
       <c r="C68">
-        <v>355</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="B69">
-        <v>3.96</v>
+        <v>4.89</v>
       </c>
       <c r="C69">
-        <v>183</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="B70">
-        <v>3.93</v>
+        <v>4.44</v>
       </c>
       <c r="C70">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="B71">
-        <v>4.11</v>
+        <v>4.1</v>
       </c>
       <c r="C71">
-        <v>47</v>
+        <v>96</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="B72">
-        <v>3.86</v>
+        <v>5.2</v>
       </c>
       <c r="C72">
-        <v>300</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="B73">
-        <v>0</v>
+        <v>4.04</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>133</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="B74">
-        <v>4.25</v>
+        <v>4.06</v>
       </c>
       <c r="C74">
-        <v>751</v>
+        <v>143</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="B75">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="C75">
-        <v>1756</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="B76">
-        <v>4.68</v>
+        <v>4.55</v>
       </c>
       <c r="C76">
-        <v>75</v>
+        <v>53</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="B77">
-        <v>4.18</v>
+        <v>4.32</v>
       </c>
       <c r="C77">
-        <v>115</v>
+        <v>84</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="B78">
-        <v>4.78</v>
+        <v>4.46</v>
       </c>
       <c r="C78">
-        <v>63</v>
+        <v>97</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="B79">
-        <v>3.43</v>
+        <v>4.35</v>
       </c>
       <c r="C79">
-        <v>174</v>
+        <v>143</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="B80">
-        <v>4.11</v>
+        <v>4.03</v>
       </c>
       <c r="C80">
-        <v>9</v>
+        <v>89</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="B81">
-        <v>4.36</v>
+        <v>3.78</v>
       </c>
       <c r="C81">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="B82">
-        <v>4.23</v>
+        <v>4.68</v>
       </c>
       <c r="C82">
-        <v>611</v>
+        <v>28</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="B83">
         <v>4.17</v>
       </c>
       <c r="C83">
-        <v>93</v>
+        <v>900</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="B84">
-        <v>4.74</v>
+        <v>4.04</v>
       </c>
       <c r="C84">
-        <v>74</v>
+        <v>317</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="B85">
-        <v>4.53</v>
+        <v>3.71</v>
       </c>
       <c r="C85">
-        <v>296</v>
+        <v>24</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="B86">
-        <v>4.79</v>
+        <v>4.16</v>
       </c>
       <c r="C86">
-        <v>14</v>
+        <v>70</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="B87">
-        <v>4.55</v>
+        <v>4.42</v>
       </c>
       <c r="C87">
-        <v>276</v>
+        <v>109</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="B88">
-        <v>4.88</v>
+        <v>4.7</v>
       </c>
       <c r="C88">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="B89">
-        <v>4.48</v>
+        <v>4.75</v>
       </c>
       <c r="C89">
-        <v>44</v>
+        <v>71</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="B90">
-        <v>4.04</v>
+        <v>4.08</v>
       </c>
       <c r="C90">
-        <v>187</v>
+        <v>160</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="B91">
-        <v>4.3</v>
+        <v>4.17</v>
       </c>
       <c r="C91">
-        <v>435</v>
+        <v>109</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="B92">
-        <v>4.47</v>
+        <v>4.53</v>
       </c>
       <c r="C92">
-        <v>272</v>
+        <v>62</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="B93">
-        <v>4.22</v>
+        <v>4.57</v>
       </c>
       <c r="C93">
-        <v>336</v>
+        <v>98</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="B94">
-        <v>3.73</v>
+        <v>4.2</v>
       </c>
       <c r="C94">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="B95">
-        <v>4.52</v>
+        <v>4.04</v>
       </c>
       <c r="C95">
-        <v>60</v>
+        <v>103</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="B96">
-        <v>4.37</v>
+        <v>4.02</v>
       </c>
       <c r="C96">
-        <v>293</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="B97">
-        <v>4.34</v>
+        <v>3.52</v>
       </c>
       <c r="C97">
-        <v>140</v>
+        <v>296</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="B98">
-        <v>4.63</v>
+        <v>4.52</v>
       </c>
       <c r="C98">
-        <v>126</v>
+        <v>61</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="B99">
-        <v>4.17</v>
+        <v>4.15</v>
       </c>
       <c r="C99">
-        <v>1198</v>
+        <v>318</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="B100">
-        <v>4.13</v>
+        <v>4.45</v>
       </c>
       <c r="C100">
-        <v>127</v>
+        <v>78</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="B101">
-        <v>3.81</v>
+        <v>3.89</v>
       </c>
       <c r="C101">
-        <v>182</v>
+        <v>19</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="B102">
-        <v>3.99</v>
+        <v>4.02</v>
       </c>
       <c r="C102">
-        <v>639</v>
+        <v>968</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="B103">
-        <v>4.34</v>
+        <v>4.42</v>
       </c>
       <c r="C103">
-        <v>181</v>
+        <v>48</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="B104">
-        <v>4.89</v>
+        <v>3.91</v>
       </c>
       <c r="C104">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="B105">
-        <v>4.29</v>
+        <v>4.1</v>
       </c>
       <c r="C105">
-        <v>296</v>
+        <v>80</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="B106">
-        <v>4.58</v>
+        <v>4.22</v>
       </c>
       <c r="C106">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="B107">
-        <v>4.53</v>
+        <v>4.25</v>
       </c>
       <c r="C107">
-        <v>221</v>
+        <v>535</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="B108">
-        <v>4.19</v>
+        <v>4.04</v>
       </c>
       <c r="C108">
-        <v>178</v>
+        <v>647</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="B109">
-        <v>4.44</v>
+        <v>3.96</v>
       </c>
       <c r="C109">
-        <v>230</v>
+        <v>365</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="B110">
-        <v>4.41</v>
+        <v>4.63</v>
       </c>
       <c r="C110">
-        <v>197</v>
+        <v>113</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="B111">
-        <v>4.46</v>
+        <v>3.58</v>
       </c>
       <c r="C111">
-        <v>226</v>
+        <v>152</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="B112">
-        <v>0</v>
+        <v>4.58</v>
       </c>
       <c r="C112">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="B113">
-        <v>4.5</v>
+        <v>4.54</v>
       </c>
       <c r="C113">
-        <v>250</v>
+        <v>46</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="B114">
-        <v>4.93</v>
+        <v>4.62</v>
       </c>
       <c r="C114">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
-      <c r="A115" t="s">
-        <v>183</v>
-      </c>
-      <c r="B115">
-        <v>0</v>
-      </c>
-      <c r="C115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116" t="s">
-        <v>184</v>
-      </c>
-      <c r="B116">
-        <v>5.13</v>
-      </c>
-      <c r="C116">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
-      <c r="A117" t="s">
-        <v>185</v>
-      </c>
-      <c r="B117">
-        <v>4.18</v>
-      </c>
-      <c r="C117">
-        <v>1272</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
-      <c r="A118" t="s">
-        <v>186</v>
-      </c>
-      <c r="B118">
-        <v>4.73</v>
-      </c>
-      <c r="C118">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
-      <c r="A119" t="s">
-        <v>187</v>
-      </c>
-      <c r="B119">
-        <v>4.69</v>
-      </c>
-      <c r="C119">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
-      <c r="A120" t="s">
-        <v>188</v>
-      </c>
-      <c r="B120">
-        <v>4.63</v>
-      </c>
-      <c r="C120">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
-      <c r="A121" t="s">
-        <v>189</v>
-      </c>
-      <c r="B121">
-        <v>3.98</v>
-      </c>
-      <c r="C121">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
-      <c r="A122" t="s">
-        <v>190</v>
-      </c>
-      <c r="B122">
-        <v>4.34</v>
-      </c>
-      <c r="C122">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
-      <c r="A123" t="s">
-        <v>191</v>
-      </c>
-      <c r="B123">
-        <v>4.16</v>
-      </c>
-      <c r="C123">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
-      <c r="A124" t="s">
-        <v>192</v>
-      </c>
-      <c r="B124">
-        <v>4.66</v>
-      </c>
-      <c r="C124">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
-      <c r="A125" t="s">
-        <v>193</v>
-      </c>
-      <c r="B125">
-        <v>5.09</v>
-      </c>
-      <c r="C125">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
-      <c r="A126" t="s">
-        <v>194</v>
-      </c>
-      <c r="B126">
-        <v>4.77</v>
-      </c>
-      <c r="C126">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
-      <c r="A127" t="s">
-        <v>195</v>
-      </c>
-      <c r="B127">
-        <v>5.22</v>
-      </c>
-      <c r="C127">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
-      <c r="A128" t="s">
-        <v>196</v>
-      </c>
-      <c r="B128">
-        <v>4</v>
-      </c>
-      <c r="C128">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
-      <c r="A129" t="s">
-        <v>197</v>
-      </c>
-      <c r="B129">
-        <v>4.64</v>
-      </c>
-      <c r="C129">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
-      <c r="A130" t="s">
-        <v>198</v>
-      </c>
-      <c r="B130">
-        <v>4.5</v>
-      </c>
-      <c r="C130">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3">
-      <c r="A131" t="s">
-        <v>199</v>
-      </c>
-      <c r="B131">
-        <v>4.22</v>
-      </c>
-      <c r="C131">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3">
-      <c r="A132" t="s">
-        <v>200</v>
-      </c>
-      <c r="B132">
-        <v>0</v>
-      </c>
-      <c r="C132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3">
-      <c r="A133" t="s">
-        <v>201</v>
-      </c>
-      <c r="B133">
-        <v>4.49</v>
-      </c>
-      <c r="C133">
-        <v>246</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -3552,7 +3101,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C86"/>
+  <dimension ref="A1:C69"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3575,937 +3124,750 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>202</v>
+        <v>167</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>4.09</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>344</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>203</v>
+        <v>168</v>
       </c>
       <c r="B3">
-        <v>4.03</v>
+        <v>3.96</v>
       </c>
       <c r="C3">
-        <v>225</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>204</v>
+        <v>169</v>
       </c>
       <c r="B4">
-        <v>4.22</v>
+        <v>4.27</v>
       </c>
       <c r="C4">
-        <v>143</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>205</v>
+        <v>170</v>
       </c>
       <c r="B5">
-        <v>4.18</v>
+        <v>4.5</v>
       </c>
       <c r="C5">
-        <v>561</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>206</v>
+        <v>171</v>
       </c>
       <c r="B6">
-        <v>4.51</v>
+        <v>4.73</v>
       </c>
       <c r="C6">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>207</v>
+        <v>172</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>4.27</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>208</v>
+        <v>173</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>4.12</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>209</v>
+        <v>174</v>
       </c>
       <c r="B9">
-        <v>4.17</v>
+        <v>4.56</v>
       </c>
       <c r="C9">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>210</v>
+        <v>175</v>
       </c>
       <c r="B10">
-        <v>4.11</v>
+        <v>4.54</v>
       </c>
       <c r="C10">
-        <v>230</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>211</v>
+        <v>176</v>
       </c>
       <c r="B11">
-        <v>4.38</v>
+        <v>4.29</v>
       </c>
       <c r="C11">
-        <v>146</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="B12">
-        <v>4.27</v>
+        <v>4.47</v>
       </c>
       <c r="C12">
-        <v>1075</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>213</v>
+        <v>178</v>
       </c>
       <c r="B13">
-        <v>4.43</v>
+        <v>4.33</v>
       </c>
       <c r="C13">
-        <v>1357</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>214</v>
+        <v>179</v>
       </c>
       <c r="B14">
-        <v>3.66</v>
+        <v>4.08</v>
       </c>
       <c r="C14">
-        <v>291</v>
+        <v>297</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>215</v>
+        <v>180</v>
       </c>
       <c r="B15">
-        <v>3.79</v>
+        <v>4</v>
       </c>
       <c r="C15">
-        <v>76</v>
+        <v>426</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>216</v>
+        <v>181</v>
       </c>
       <c r="B16">
-        <v>4.55</v>
+        <v>4.33</v>
       </c>
       <c r="C16">
-        <v>376</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>217</v>
+        <v>182</v>
       </c>
       <c r="B17">
-        <v>4.19</v>
+        <v>5.05</v>
       </c>
       <c r="C17">
-        <v>395</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>218</v>
+        <v>183</v>
       </c>
       <c r="B18">
-        <v>4.31</v>
+        <v>4.51</v>
       </c>
       <c r="C18">
-        <v>260</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>219</v>
+        <v>184</v>
       </c>
       <c r="B19">
-        <v>3.64</v>
+        <v>3.93</v>
       </c>
       <c r="C19">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>220</v>
+        <v>185</v>
       </c>
       <c r="B20">
-        <v>4.28</v>
+        <v>3.83</v>
       </c>
       <c r="C20">
-        <v>335</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>221</v>
+        <v>186</v>
       </c>
       <c r="B21">
-        <v>3.75</v>
+        <v>4.69</v>
       </c>
       <c r="C21">
-        <v>414</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>222</v>
+        <v>187</v>
       </c>
       <c r="B22">
-        <v>5.13</v>
+        <v>4</v>
       </c>
       <c r="C22">
-        <v>71</v>
+        <v>380</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>223</v>
+        <v>188</v>
       </c>
       <c r="B23">
-        <v>4.31</v>
+        <v>4.44</v>
       </c>
       <c r="C23">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>224</v>
+        <v>189</v>
       </c>
       <c r="B24">
-        <v>4.28</v>
+        <v>4.39</v>
       </c>
       <c r="C24">
-        <v>215</v>
+        <v>298</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>225</v>
+        <v>190</v>
       </c>
       <c r="B25">
-        <v>4.53</v>
+        <v>4.67</v>
       </c>
       <c r="C25">
-        <v>780</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="B27">
-        <v>4.07</v>
+        <v>4.08</v>
       </c>
       <c r="C27">
-        <v>973</v>
+        <v>142</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>228</v>
+        <v>193</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>229</v>
+        <v>194</v>
       </c>
       <c r="B29">
-        <v>4.08</v>
+        <v>5</v>
       </c>
       <c r="C29">
-        <v>769</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="B30">
-        <v>4.28</v>
+        <v>4.56</v>
       </c>
       <c r="C30">
-        <v>288</v>
+        <v>178</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>231</v>
+        <v>196</v>
       </c>
       <c r="B31">
-        <v>3.93</v>
+        <v>4.26</v>
       </c>
       <c r="C31">
-        <v>260</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>232</v>
+        <v>197</v>
       </c>
       <c r="B32">
-        <v>3.82</v>
+        <v>4.43</v>
       </c>
       <c r="C32">
-        <v>34</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>233</v>
+        <v>198</v>
       </c>
       <c r="B33">
-        <v>4.87</v>
+        <v>3.95</v>
       </c>
       <c r="C33">
-        <v>173</v>
+        <v>574</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>234</v>
+        <v>199</v>
       </c>
       <c r="B34">
-        <v>4.24</v>
+        <v>3.56</v>
       </c>
       <c r="C34">
-        <v>197</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>235</v>
+        <v>200</v>
       </c>
       <c r="B35">
-        <v>3.86</v>
+        <v>3.82</v>
       </c>
       <c r="C35">
-        <v>99</v>
+        <v>476</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>236</v>
+        <v>201</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>237</v>
+        <v>202</v>
       </c>
       <c r="B37">
-        <v>5.17</v>
+        <v>4.59</v>
       </c>
       <c r="C37">
-        <v>18</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>238</v>
+        <v>203</v>
       </c>
       <c r="B38">
-        <v>4.01</v>
+        <v>4.27</v>
       </c>
       <c r="C38">
-        <v>390</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>239</v>
+        <v>204</v>
       </c>
       <c r="B39">
-        <v>4</v>
+        <v>5.88</v>
       </c>
       <c r="C39">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>240</v>
+        <v>205</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>3.74</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>138</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>241</v>
+        <v>206</v>
       </c>
       <c r="B41">
-        <v>4.6</v>
+        <v>4.57</v>
       </c>
       <c r="C41">
-        <v>50</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>242</v>
+        <v>207</v>
       </c>
       <c r="B42">
-        <v>3.57</v>
+        <v>4.26</v>
       </c>
       <c r="C42">
-        <v>184</v>
+        <v>93</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>243</v>
+        <v>208</v>
       </c>
       <c r="B43">
-        <v>4.41</v>
+        <v>4.26</v>
       </c>
       <c r="C43">
-        <v>153</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>244</v>
+        <v>209</v>
       </c>
       <c r="B44">
-        <v>4</v>
+        <v>4.24</v>
       </c>
       <c r="C44">
-        <v>1181</v>
+        <v>304</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>245</v>
+        <v>210</v>
       </c>
       <c r="B45">
-        <v>4.57</v>
+        <v>3.37</v>
       </c>
       <c r="C45">
-        <v>182</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>246</v>
+        <v>211</v>
       </c>
       <c r="B46">
-        <v>3.77</v>
+        <v>4.86</v>
       </c>
       <c r="C46">
-        <v>173</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>247</v>
+        <v>212</v>
       </c>
       <c r="B47">
-        <v>4.31</v>
+        <v>4.55</v>
       </c>
       <c r="C47">
-        <v>175</v>
+        <v>389</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>248</v>
+        <v>213</v>
       </c>
       <c r="B48">
-        <v>4.46</v>
+        <v>4</v>
       </c>
       <c r="C48">
-        <v>183</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>249</v>
+        <v>214</v>
       </c>
       <c r="B49">
-        <v>4.11</v>
+        <v>4.08</v>
       </c>
       <c r="C49">
-        <v>181</v>
+        <v>202</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="B50">
-        <v>4.44</v>
+        <v>4.18</v>
       </c>
       <c r="C50">
-        <v>142</v>
+        <v>114</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>251</v>
+        <v>216</v>
       </c>
       <c r="B51">
-        <v>4.63</v>
+        <v>4.17</v>
       </c>
       <c r="C51">
-        <v>103</v>
+        <v>54</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>252</v>
+        <v>217</v>
       </c>
       <c r="B52">
-        <v>4.03</v>
+        <v>4.24</v>
       </c>
       <c r="C52">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>253</v>
+        <v>218</v>
       </c>
       <c r="B53">
-        <v>4.07</v>
+        <v>4.13</v>
       </c>
       <c r="C53">
-        <v>595</v>
+        <v>642</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>254</v>
+        <v>219</v>
       </c>
       <c r="B54">
-        <v>4.76</v>
+        <v>3.73</v>
       </c>
       <c r="C54">
-        <v>178</v>
+        <v>210</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>255</v>
+        <v>220</v>
       </c>
       <c r="B55">
-        <v>5</v>
+        <v>4.36</v>
       </c>
       <c r="C55">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>256</v>
+        <v>221</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>5.36</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>257</v>
+        <v>222</v>
       </c>
       <c r="B57">
-        <v>4.22</v>
+        <v>5.22</v>
       </c>
       <c r="C57">
-        <v>650</v>
+        <v>37</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>258</v>
+        <v>223</v>
       </c>
       <c r="B58">
-        <v>4.36</v>
+        <v>4.79</v>
       </c>
       <c r="C58">
-        <v>240</v>
+        <v>126</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>259</v>
+        <v>224</v>
       </c>
       <c r="B59">
-        <v>3.64</v>
+        <v>4.51</v>
       </c>
       <c r="C59">
-        <v>170</v>
+        <v>41</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>260</v>
+        <v>225</v>
       </c>
       <c r="B60">
-        <v>4.35</v>
+        <v>3.53</v>
       </c>
       <c r="C60">
-        <v>82</v>
+        <v>94</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>261</v>
+        <v>226</v>
       </c>
       <c r="B61">
-        <v>4.6</v>
+        <v>4.14</v>
       </c>
       <c r="C61">
-        <v>53</v>
+        <v>132</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>262</v>
+        <v>227</v>
       </c>
       <c r="B62">
-        <v>4.11</v>
+        <v>4.04</v>
       </c>
       <c r="C62">
-        <v>18</v>
+        <v>314</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="B63">
-        <v>4.56</v>
+        <v>4.24</v>
       </c>
       <c r="C63">
-        <v>138</v>
+        <v>108</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>264</v>
+        <v>229</v>
       </c>
       <c r="B64">
-        <v>4.59</v>
+        <v>4.28</v>
       </c>
       <c r="C64">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>265</v>
+        <v>230</v>
       </c>
       <c r="B65">
-        <v>4.54</v>
+        <v>4.3</v>
       </c>
       <c r="C65">
-        <v>142</v>
+        <v>105</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>266</v>
+        <v>231</v>
       </c>
       <c r="B66">
-        <v>4.23</v>
+        <v>4.47</v>
       </c>
       <c r="C66">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>267</v>
+        <v>232</v>
       </c>
       <c r="B67">
-        <v>4</v>
+        <v>5.43</v>
       </c>
       <c r="C67">
-        <v>1098</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>268</v>
+        <v>233</v>
       </c>
       <c r="B68">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="C68">
-        <v>584</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>269</v>
+        <v>234</v>
       </c>
       <c r="B69">
-        <v>3.99</v>
+        <v>3.64</v>
       </c>
       <c r="C69">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" t="s">
-        <v>270</v>
-      </c>
-      <c r="B70">
-        <v>5.04</v>
-      </c>
-      <c r="C70">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" t="s">
-        <v>271</v>
-      </c>
-      <c r="B71">
-        <v>4.83</v>
-      </c>
-      <c r="C71">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" t="s">
-        <v>272</v>
-      </c>
-      <c r="B72">
-        <v>4.37</v>
-      </c>
-      <c r="C72">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" t="s">
-        <v>273</v>
-      </c>
-      <c r="B73">
-        <v>4.45</v>
-      </c>
-      <c r="C73">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" t="s">
-        <v>274</v>
-      </c>
-      <c r="B74">
-        <v>4.74</v>
-      </c>
-      <c r="C74">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" t="s">
-        <v>275</v>
-      </c>
-      <c r="B75">
-        <v>4.52</v>
-      </c>
-      <c r="C75">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" t="s">
-        <v>276</v>
-      </c>
-      <c r="B76">
-        <v>4.47</v>
-      </c>
-      <c r="C76">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" t="s">
-        <v>277</v>
-      </c>
-      <c r="B77">
-        <v>3.93</v>
-      </c>
-      <c r="C77">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" t="s">
-        <v>278</v>
-      </c>
-      <c r="B78">
-        <v>4.37</v>
-      </c>
-      <c r="C78">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" t="s">
-        <v>279</v>
-      </c>
-      <c r="B79">
-        <v>3.99</v>
-      </c>
-      <c r="C79">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" t="s">
-        <v>280</v>
-      </c>
-      <c r="B80">
-        <v>4.58</v>
-      </c>
-      <c r="C80">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" t="s">
-        <v>281</v>
-      </c>
-      <c r="B81">
-        <v>4.43</v>
-      </c>
-      <c r="C81">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" t="s">
-        <v>282</v>
-      </c>
-      <c r="B82">
-        <v>4.76</v>
-      </c>
-      <c r="C82">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" t="s">
-        <v>283</v>
-      </c>
-      <c r="B83">
-        <v>4.25</v>
-      </c>
-      <c r="C83">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" t="s">
-        <v>284</v>
-      </c>
-      <c r="B84">
-        <v>4.71</v>
-      </c>
-      <c r="C84">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" t="s">
-        <v>285</v>
-      </c>
-      <c r="B85">
-        <v>1.67</v>
-      </c>
-      <c r="C85">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" t="s">
-        <v>286</v>
-      </c>
-      <c r="B86">
-        <v>4.56</v>
-      </c>
-      <c r="C86">
-        <v>57</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -4515,7 +3877,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4538,266 +3900,596 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>287</v>
+        <v>235</v>
       </c>
       <c r="B2">
-        <v>4.69</v>
+        <v>4.54</v>
       </c>
       <c r="C2">
-        <v>255</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>288</v>
+        <v>236</v>
       </c>
       <c r="B3">
-        <v>4.88</v>
+        <v>3.99</v>
       </c>
       <c r="C3">
-        <v>212</v>
+        <v>383</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>289</v>
+        <v>237</v>
       </c>
       <c r="B4">
-        <v>4.11</v>
+        <v>4.03</v>
       </c>
       <c r="C4">
-        <v>1135</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>290</v>
+        <v>238</v>
       </c>
       <c r="B5">
-        <v>5.06</v>
+        <v>5.89</v>
       </c>
       <c r="C5">
-        <v>50</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>291</v>
+        <v>239</v>
       </c>
       <c r="B6">
-        <v>4.17</v>
+        <v>4.35</v>
       </c>
       <c r="C6">
-        <v>188</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>292</v>
+        <v>240</v>
       </c>
       <c r="B7">
-        <v>4.15</v>
+        <v>4.28</v>
       </c>
       <c r="C7">
-        <v>594</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>293</v>
+        <v>241</v>
       </c>
       <c r="B8">
-        <v>4.23</v>
+        <v>4.37</v>
       </c>
       <c r="C8">
-        <v>483</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>294</v>
+        <v>242</v>
       </c>
       <c r="B9">
-        <v>4.05</v>
+        <v>4.47</v>
       </c>
       <c r="C9">
-        <v>205</v>
+        <v>680</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>295</v>
+        <v>243</v>
       </c>
       <c r="B10">
-        <v>4.26</v>
+        <v>4.4</v>
       </c>
       <c r="C10">
-        <v>369</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>296</v>
+        <v>244</v>
       </c>
       <c r="B11">
-        <v>4.16</v>
+        <v>4.35</v>
       </c>
       <c r="C11">
-        <v>360</v>
+        <v>507</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>297</v>
+        <v>245</v>
       </c>
       <c r="B12">
-        <v>4.13</v>
+        <v>4.53</v>
       </c>
       <c r="C12">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>298</v>
+        <v>246</v>
       </c>
       <c r="B13">
-        <v>4.26</v>
+        <v>4.37</v>
       </c>
       <c r="C13">
-        <v>201</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>299</v>
+        <v>247</v>
       </c>
       <c r="B14">
-        <v>4.23</v>
+        <v>4.39</v>
       </c>
       <c r="C14">
-        <v>221</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>300</v>
+        <v>248</v>
       </c>
       <c r="B15">
-        <v>4.24</v>
+        <v>4.49</v>
       </c>
       <c r="C15">
-        <v>278</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>301</v>
+        <v>249</v>
       </c>
       <c r="B16">
-        <v>4.26</v>
+        <v>4.09</v>
       </c>
       <c r="C16">
-        <v>95</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>302</v>
+        <v>250</v>
       </c>
       <c r="B17">
-        <v>5.14</v>
+        <v>4.18</v>
       </c>
       <c r="C17">
-        <v>29</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>303</v>
+        <v>251</v>
       </c>
       <c r="B18">
-        <v>4</v>
+        <v>4.24</v>
       </c>
       <c r="C18">
-        <v>81</v>
+        <v>308</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>304</v>
+        <v>252</v>
       </c>
       <c r="B19">
-        <v>4.52</v>
+        <v>3.25</v>
       </c>
       <c r="C19">
-        <v>180</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>305</v>
+        <v>253</v>
       </c>
       <c r="B20">
-        <v>4.5</v>
+        <v>4.27</v>
       </c>
       <c r="C20">
-        <v>172</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>306</v>
+        <v>254</v>
       </c>
       <c r="B21">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="C21">
-        <v>80</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="B22">
-        <v>3.54</v>
+        <v>4.93</v>
       </c>
       <c r="C22">
-        <v>59</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>308</v>
+        <v>256</v>
       </c>
       <c r="B23">
-        <v>4.64</v>
+        <v>4.6</v>
       </c>
       <c r="C23">
-        <v>211</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>309</v>
+        <v>257</v>
       </c>
       <c r="B24">
-        <v>3.05</v>
+        <v>4.04</v>
       </c>
       <c r="C24">
-        <v>41</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>310</v>
+        <v>258</v>
       </c>
       <c r="B25">
-        <v>4.75</v>
+        <v>5.45</v>
       </c>
       <c r="C25">
-        <v>24</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>259</v>
+      </c>
+      <c r="B26">
+        <v>4.45</v>
+      </c>
+      <c r="C26">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>260</v>
+      </c>
+      <c r="B27">
+        <v>4.41</v>
+      </c>
+      <c r="C27">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>261</v>
+      </c>
+      <c r="B28">
+        <v>4.24</v>
+      </c>
+      <c r="C28">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>262</v>
+      </c>
+      <c r="B29">
+        <v>4.25</v>
+      </c>
+      <c r="C29">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>263</v>
+      </c>
+      <c r="B30">
+        <v>4.72</v>
+      </c>
+      <c r="C30">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>264</v>
+      </c>
+      <c r="B31">
+        <v>5.11</v>
+      </c>
+      <c r="C31">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>265</v>
+      </c>
+      <c r="B32">
+        <v>4.33</v>
+      </c>
+      <c r="C32">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>266</v>
+      </c>
+      <c r="B33">
+        <v>1.67</v>
+      </c>
+      <c r="C33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>267</v>
+      </c>
+      <c r="B34">
+        <v>5</v>
+      </c>
+      <c r="C34">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>268</v>
+      </c>
+      <c r="B35">
+        <v>4.44</v>
+      </c>
+      <c r="C35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>269</v>
+      </c>
+      <c r="B36">
+        <v>6.75</v>
+      </c>
+      <c r="C36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>270</v>
+      </c>
+      <c r="B37">
+        <v>4.93</v>
+      </c>
+      <c r="C37">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>271</v>
+      </c>
+      <c r="B38">
+        <v>3.67</v>
+      </c>
+      <c r="C38">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>272</v>
+      </c>
+      <c r="B39">
+        <v>6</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>273</v>
+      </c>
+      <c r="B40">
+        <v>5.86</v>
+      </c>
+      <c r="C40">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>274</v>
+      </c>
+      <c r="B41">
+        <v>5.33</v>
+      </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>275</v>
+      </c>
+      <c r="B42">
+        <v>5.26</v>
+      </c>
+      <c r="C42">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>276</v>
+      </c>
+      <c r="B43">
+        <v>4.36</v>
+      </c>
+      <c r="C43">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>277</v>
+      </c>
+      <c r="B44">
+        <v>3.48</v>
+      </c>
+      <c r="C44">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>278</v>
+      </c>
+      <c r="B45">
+        <v>5.5</v>
+      </c>
+      <c r="C45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>279</v>
+      </c>
+      <c r="B46">
+        <v>4.33</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>280</v>
+      </c>
+      <c r="B47">
+        <v>4.13</v>
+      </c>
+      <c r="C47">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>281</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>282</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>283</v>
+      </c>
+      <c r="B50">
+        <v>4.2</v>
+      </c>
+      <c r="C50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>284</v>
+      </c>
+      <c r="B51">
+        <v>3</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>285</v>
+      </c>
+      <c r="B52">
+        <v>5</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>286</v>
+      </c>
+      <c r="B53">
+        <v>3.5</v>
+      </c>
+      <c r="C53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>287</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>288</v>
+      </c>
+      <c r="B55">
+        <v>5</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
